--- a/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
+++ b/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21323"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0FC83EFA8C023BD2398F125BF61F5A5FCEAD0C00" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\ARpUIiRC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21075" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21075" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -13,36 +17,17 @@
     <sheet name="Weighting" sheetId="8" r:id="rId3"/>
     <sheet name="ARpUIiRC" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="157">
   <si>
     <t>ARpUIiRC Annual Retirement per Unit Increase in Relative Cost</t>
   </si>
   <si>
     <t>Source:</t>
-  </si>
-  <si>
-    <t>Resources for the Future</t>
-  </si>
-  <si>
-    <t>Taxing Electricity Sector Carbon Emissions at Social Cost</t>
-  </si>
-  <si>
-    <t>http://www.rff.org/files/sharepoint/WorkImages/Download/RFF-DP-13-23-REV.pdf</t>
-  </si>
-  <si>
-    <t>Pages 26-27, Tables A1 and A2</t>
   </si>
   <si>
     <t>Notes</t>
@@ -55,9 +40,6 @@
   </si>
   <si>
     <t>plant construction costs.  The model takes the difference between each source's</t>
-  </si>
-  <si>
-    <t>cost and the average cost of electricity generation for each of the BAU and Policy</t>
   </si>
   <si>
     <t>cases.  User-set policy levers can cause the differences between each source</t>
@@ -79,6 +61,66 @@
   </si>
   <si>
     <t>more expensive relative to the mean may retire early, unless ineligible to</t>
+  </si>
+  <si>
+    <t>The cost metric we are using is relatively novel.  (It is the difference between the</t>
+  </si>
+  <si>
+    <t>BAU and Policy cases in the difference between each source and the same-case</t>
+  </si>
+  <si>
+    <t>all-source mean).  For this reason, it is not possible to look up a value for it explicitly</t>
+  </si>
+  <si>
+    <t>in the literature.  However, it is possible to calibrate it by finding a source that</t>
+  </si>
+  <si>
+    <t>estimates how many coal plant retirements would be induced by (say) a particular</t>
+  </si>
+  <si>
+    <t>level of carbon tax implemented in certain years.  We then set up that carbon tax</t>
+  </si>
+  <si>
+    <t>policy in the model and adjust this variable (ARpUIiRC) to obtain the quantity</t>
+  </si>
+  <si>
+    <t>of coal retirements specified by our input data source.</t>
+  </si>
+  <si>
+    <t>Annual Retirement per Unit Increase in Relative Cost MW/($/MWh)</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>natural gas nonpeaker</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>solar PV</t>
+  </si>
+  <si>
+    <t>solar thermal</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
   </si>
   <si>
     <t>retire early.  Ineligible sources have values of zero on the next tab and fall</t>
@@ -116,40 +158,22 @@
     <t>balancing and fast-ramping services, not to generate power cheaply.  These</t>
   </si>
   <si>
+    <t>if renewables become cheaper.</t>
+  </si>
+  <si>
     <t>services will still be valuable, even if fossil fuels become more expensive or</t>
   </si>
   <si>
-    <t>if renewables become cheaper.</t>
+    <t>Resources for the Future</t>
   </si>
   <si>
-    <t>The cost metric we are using is relatively novel.  (It is the difference between the</t>
+    <t>Taxing Electricity Sector Carbon Emissions at Social Cost</t>
   </si>
   <si>
-    <t>BAU and Policy cases in the difference between each source and the same-case</t>
+    <t>http://www.rff.org/files/sharepoint/WorkImages/Download/RFF-DP-13-23-REV.pdf</t>
   </si>
   <si>
-    <t>all-source mean).  For this reason, it is not possible to look up a value for it explicitly</t>
-  </si>
-  <si>
-    <t>in the literature.  However, it is possible to calibrate it by finding a source that</t>
-  </si>
-  <si>
-    <t>estimates how many coal plant retirements would be induced by (say) a particular</t>
-  </si>
-  <si>
-    <t>level of carbon tax implemented in certain years.  We then set up that carbon tax</t>
-  </si>
-  <si>
-    <t>policy in the model and adjust this variable (ARpUIiRC) to obtain the quantity</t>
-  </si>
-  <si>
-    <t>of coal retirements specified by our input data source.</t>
-  </si>
-  <si>
-    <t>2009 to 2012 USD</t>
-  </si>
-  <si>
-    <t>Carbon Price (2009$)</t>
+    <t>Pages 26-27, Tables A1 and A2</t>
   </si>
   <si>
     <t>Baseline</t>
@@ -167,16 +191,19 @@
     <t>Tail</t>
   </si>
   <si>
+    <t>Carbon Price (2009$)</t>
+  </si>
+  <si>
     <t>Carbon Price (2012$)</t>
   </si>
   <si>
-    <t>Annual Carbon Price</t>
+    <t>2009 to 2012 USD</t>
   </si>
   <si>
     <t>Annual Carbon Price, Offset 2 Years</t>
   </si>
   <si>
-    <t>Implementation Schedule</t>
+    <t>Annual Carbon Price</t>
   </si>
   <si>
     <t>Coal Plant Existing Capacity</t>
@@ -197,31 +224,19 @@
     <t>Annual CC Gas Plant Existing Capacity, Offset 2 Years</t>
   </si>
   <si>
+    <t>Implementation Schedule</t>
+  </si>
+  <si>
     <t>Annual Coal Plant Existing Capacity Retirements, Offset 2 Years</t>
   </si>
   <si>
     <t>Annual CC Gas Plant Existing Capacity Retirements, Offset 2 Years</t>
   </si>
   <si>
-    <t>Cumulative Coal Retirements through 2037</t>
-  </si>
-  <si>
-    <t>Modeling Result of Calibrated Input Value</t>
-  </si>
-  <si>
     <t>Equivlaent Variable Setting</t>
   </si>
   <si>
-    <t xml:space="preserve">Method Using Existing Data </t>
-  </si>
-  <si>
-    <t>Cost per Unit New Elec Output</t>
-  </si>
-  <si>
     <t>Time (Year)</t>
-  </si>
-  <si>
-    <t>"Cost per Unit New Elec Output[Electricity Source]"  Runs:</t>
   </si>
   <si>
     <t>MostRecentRun</t>
@@ -260,18 +275,6 @@
     <t>[natural gas peaker es]</t>
   </si>
   <si>
-    <t>Annualized Construction Cost per Unit Capacity</t>
-  </si>
-  <si>
-    <t>"Annualized Construction Cost per Unit Capacity[Electricity Source]"  Runs:</t>
-  </si>
-  <si>
-    <t>Expected Capacity Factor x Hours per Year</t>
-  </si>
-  <si>
-    <t>"Expected Capacity Factor x Hours per Year[Electricity Source,Power Plant Quality]"  Runs:</t>
-  </si>
-  <si>
     <t>[coal es,newly built]</t>
   </si>
   <si>
@@ -305,142 +308,28 @@
     <t>[natural gas peaker es,newly built]</t>
   </si>
   <si>
-    <t>Levelized Fixed O&amp;M + Variable (including O&amp;M and fuel) Costs</t>
+    <t>Cumulative Coal Retirements through 2037</t>
   </si>
   <si>
-    <t>Method Using Updated Data for Exiting Plant O&amp;M Costs</t>
+    <t>"Cost per Unit New Elec Output[Electricity Source]"  Runs:</t>
   </si>
   <si>
-    <t>O&amp;M Costs</t>
+    <t>Cost per Unit New Elec Output</t>
   </si>
   <si>
-    <t>Model Subscript</t>
+    <t>"Annualized Construction Cost per Unit Capacity[Electricity Source]"  Runs:</t>
   </si>
   <si>
-    <t>EIA Technology Name</t>
+    <t>Annualized Construction Cost per Unit Capacity</t>
   </si>
   <si>
-    <t>Tot 2014 Capital Cost (2013 $/kW)</t>
+    <t>"Expected Capacity Factor x Hours per Year[Electricity Source,Power Plant Quality]"  Runs:</t>
   </si>
   <si>
-    <t>Variable O&amp;M (2013 $/MWh)</t>
+    <t>Expected Capacity Factor x Hours per Year</t>
   </si>
   <si>
-    <t>Fixed O&amp;M (2013 $/kW/yr)</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>Scrubbed Coal</t>
-  </si>
-  <si>
-    <t>Integrated Coal Gassification Combined Cycle (IGCC)</t>
-  </si>
-  <si>
-    <t>IGCC with Carbon Sequestration</t>
-  </si>
-  <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
-    <t>Conventional Gas/Oil Combined Cycle</t>
-  </si>
-  <si>
-    <t>Advanced Gas/Oil Combined Cycle</t>
-  </si>
-  <si>
-    <t>Advanced Combined Cycle with Carbon Sequestration</t>
-  </si>
-  <si>
-    <t>natural gas peaker</t>
-  </si>
-  <si>
-    <t>Conventional Combustion Turbine</t>
-  </si>
-  <si>
-    <t>Advanced Combustion Turbine</t>
-  </si>
-  <si>
-    <t>Fuel Cells</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>Advanced Nuclear</t>
-  </si>
-  <si>
-    <t>Distributed Generation - Base</t>
-  </si>
-  <si>
-    <t>Distributed Generation - Peak</t>
-  </si>
-  <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>geothermal</t>
-  </si>
-  <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
-    <t>Municipal Solid Waste</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>Conventional Hydropower</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>Onshore Wind</t>
-  </si>
-  <si>
-    <t>Offshore Wind</t>
-  </si>
-  <si>
-    <t>solar thermal</t>
-  </si>
-  <si>
-    <t>Solar Thermal</t>
-  </si>
-  <si>
-    <t>solar PV</t>
-  </si>
-  <si>
-    <t>Solar Photovoltaic</t>
-  </si>
-  <si>
-    <t>We do not use the values in red because they exceed real-world observed costs.  We use other sources for</t>
-  </si>
-  <si>
-    <t>wind and solar PV capital costs.</t>
-  </si>
-  <si>
-    <t>Fuel Costs ($/MMBtu)</t>
-  </si>
-  <si>
-    <t>"Adjusted elec fuel price[Electricity Source]"  Runs:</t>
-  </si>
-  <si>
-    <t>Adjusted elec fuel price</t>
-  </si>
-  <si>
-    <t>Heat Rates</t>
-  </si>
-  <si>
-    <t>"Heat Rate by Electricity Fuel[Electricity Source,Power Plant Quality]"  Runs:</t>
-  </si>
-  <si>
-    <t>Heat Rate by Electricity Fuel</t>
+    <t>Modeling Result of Calibrated Input Value</t>
   </si>
   <si>
     <t>[coal es,preexisting retiring]</t>
@@ -476,45 +365,165 @@
     <t>[natural gas peaker es,preexisting retiring]</t>
   </si>
   <si>
-    <t>Expected Capacity Factors</t>
+    <t>Model Subscript</t>
+  </si>
+  <si>
+    <t>EIA Technology Name</t>
+  </si>
+  <si>
+    <t>Tot 2014 Capital Cost (2013 $/kW)</t>
+  </si>
+  <si>
+    <t>Variable O&amp;M (2013 $/MWh)</t>
+  </si>
+  <si>
+    <t>Fixed O&amp;M (2013 $/kW/yr)</t>
+  </si>
+  <si>
+    <t>Scrubbed Coal</t>
+  </si>
+  <si>
+    <t>Integrated Coal Gassification Combined Cycle (IGCC)</t>
+  </si>
+  <si>
+    <t>IGCC with Carbon Sequestration</t>
+  </si>
+  <si>
+    <t>Conventional Gas/Oil Combined Cycle</t>
+  </si>
+  <si>
+    <t>Advanced Gas/Oil Combined Cycle</t>
+  </si>
+  <si>
+    <t>Advanced Combined Cycle with Carbon Sequestration</t>
+  </si>
+  <si>
+    <t>Conventional Combustion Turbine</t>
+  </si>
+  <si>
+    <t>Advanced Combustion Turbine</t>
+  </si>
+  <si>
+    <t>Fuel Cells</t>
+  </si>
+  <si>
+    <t>Advanced Nuclear</t>
+  </si>
+  <si>
+    <t>Distributed Generation - Base</t>
+  </si>
+  <si>
+    <t>Distributed Generation - Peak</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>Municipal Solid Waste</t>
+  </si>
+  <si>
+    <t>Conventional Hydropower</t>
+  </si>
+  <si>
+    <t>Onshore Wind</t>
+  </si>
+  <si>
+    <t>Offshore Wind</t>
+  </si>
+  <si>
+    <t>Solar Thermal</t>
+  </si>
+  <si>
+    <t>Solar Photovoltaic</t>
+  </si>
+  <si>
+    <t>We do not use the values in red because they exceed real-world observed costs.  We use other sources for</t>
+  </si>
+  <si>
+    <t>wind and solar PV capital costs.</t>
+  </si>
+  <si>
+    <t>O&amp;M Costs</t>
+  </si>
+  <si>
+    <t>Heat Rates</t>
+  </si>
+  <si>
+    <t>"Heat Rate by Electricity Fuel[Electricity Source,Power Plant Quality]"  Runs:</t>
+  </si>
+  <si>
+    <t>Heat Rate by Electricity Fuel</t>
+  </si>
+  <si>
+    <t>Levelized Fixed O&amp;M Costs + Output Costs</t>
   </si>
   <si>
     <t>"Expected Capacity Factors[Electricity Source,Power Plant Quality]"  Runs:</t>
   </si>
   <si>
-    <t>Levelized Fixed O&amp;M Costs + Output Costs</t>
+    <t>Expected Capacity Factors</t>
+  </si>
+  <si>
+    <t>"Adjusted elec fuel price[Electricity Source]"  Runs:</t>
+  </si>
+  <si>
+    <t>Adjusted elec fuel price</t>
+  </si>
+  <si>
+    <t>Fuel Costs ($/MMBtu)</t>
   </si>
   <si>
     <t>Ratio of Levelized Fixed O&amp;M Costs + Output Costs to Coal</t>
   </si>
   <si>
-    <t>Annual Retirement per Unit Increase in Relative Cost MW/($/MWh)</t>
+    <t>cost and the average cost of electricity generation for each of the BAU and Policy</t>
+  </si>
+  <si>
+    <t>Levelized Fixed O&amp;M + Variable (including O&amp;M and fuel) Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method Using Existing Data </t>
+  </si>
+  <si>
+    <t>Method Using Updated Data for Exiting Plant O&amp;M Costs</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
   </si>
   <si>
     <t>hard coal</t>
   </si>
   <si>
-    <t>onshore wind</t>
+    <t>crude oil</t>
   </si>
   <si>
-    <t>petroleum</t>
+    <t>heavy or residual fuel oil</t>
   </si>
   <si>
-    <t>lignite</t>
+    <t>municipal solid waste</t>
   </si>
   <si>
-    <t>offshore wind</t>
+    <t>Currency Conversion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,23 +709,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -752,23 +744,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -944,213 +919,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>1.07</v>
       </c>
-      <c r="B42" t="s">
-        <v>33</v>
+      <c r="B43" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL113"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -1177,9 +1157,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1206,9 +1186,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -1235,9 +1215,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -1264,9 +1244,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>54</v>
@@ -1293,9 +1273,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>84</v>
@@ -1322,9 +1302,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>2015</v>
@@ -1351,194 +1331,194 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B9" s="6">
-        <f>B2*About!$A$42</f>
+        <f>B2*About!$A$43</f>
         <v>0</v>
       </c>
       <c r="C9" s="6">
-        <f>C2*About!$A$42</f>
+        <f>C2*About!$A$43</f>
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <f>D2*About!$A$42</f>
+        <f>D2*About!$A$43</f>
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <f>E2*About!$A$42</f>
+        <f>E2*About!$A$43</f>
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <f>F2*About!$A$42</f>
+        <f>F2*About!$A$43</f>
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <f>G2*About!$A$42</f>
+        <f>G2*About!$A$43</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
-        <f>H2*About!$A$42</f>
+        <f>H2*About!$A$43</f>
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <f>I2*About!$A$42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
+        <f>I2*About!$A$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B10" s="6">
-        <f>B3*About!$A$42</f>
+        <f>B3*About!$A$43</f>
         <v>11.770000000000001</v>
       </c>
       <c r="C10" s="6">
-        <f>C3*About!$A$42</f>
+        <f>C3*About!$A$43</f>
         <v>11.770000000000001</v>
       </c>
       <c r="D10" s="6">
-        <f>D3*About!$A$42</f>
+        <f>D3*About!$A$43</f>
         <v>13.91</v>
       </c>
       <c r="E10" s="6">
-        <f>E3*About!$A$42</f>
+        <f>E3*About!$A$43</f>
         <v>16.05</v>
       </c>
       <c r="F10" s="6">
-        <f>F3*About!$A$42</f>
+        <f>F3*About!$A$43</f>
         <v>19.260000000000002</v>
       </c>
       <c r="G10" s="6">
-        <f>G3*About!$A$42</f>
+        <f>G3*About!$A$43</f>
         <v>21.400000000000002</v>
       </c>
       <c r="H10" s="6">
-        <f>H3*About!$A$42</f>
+        <f>H3*About!$A$43</f>
         <v>24.610000000000003</v>
       </c>
       <c r="I10" s="6">
-        <f>I3*About!$A$42</f>
+        <f>I3*About!$A$43</f>
         <v>26.75</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B11" s="6">
-        <f>B4*About!$A$42</f>
+        <f>B4*About!$A$43</f>
         <v>38.520000000000003</v>
       </c>
       <c r="C11" s="6">
-        <f>C4*About!$A$42</f>
+        <f>C4*About!$A$43</f>
         <v>42.800000000000004</v>
       </c>
       <c r="D11" s="6">
-        <f>D4*About!$A$42</f>
+        <f>D4*About!$A$43</f>
         <v>48.150000000000006</v>
       </c>
       <c r="E11" s="6">
-        <f>E4*About!$A$42</f>
+        <f>E4*About!$A$43</f>
         <v>52.43</v>
       </c>
       <c r="F11" s="6">
-        <f>F4*About!$A$42</f>
+        <f>F4*About!$A$43</f>
         <v>56.71</v>
       </c>
       <c r="G11" s="6">
-        <f>G4*About!$A$42</f>
+        <f>G4*About!$A$43</f>
         <v>62.06</v>
       </c>
       <c r="H11" s="6">
-        <f>H4*About!$A$42</f>
+        <f>H4*About!$A$43</f>
         <v>66.34</v>
       </c>
       <c r="I11" s="6">
-        <f>I4*About!$A$42</f>
+        <f>I4*About!$A$43</f>
         <v>71.69</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B12" s="6">
-        <f>B5*About!$A$42</f>
+        <f>B5*About!$A$43</f>
         <v>57.78</v>
       </c>
       <c r="C12" s="6">
-        <f>C5*About!$A$42</f>
+        <f>C5*About!$A$43</f>
         <v>65.27000000000001</v>
       </c>
       <c r="D12" s="6">
-        <f>D5*About!$A$42</f>
+        <f>D5*About!$A$43</f>
         <v>70.62</v>
       </c>
       <c r="E12" s="6">
-        <f>E5*About!$A$42</f>
+        <f>E5*About!$A$43</f>
         <v>75.97</v>
       </c>
       <c r="F12" s="6">
-        <f>F5*About!$A$42</f>
+        <f>F5*About!$A$43</f>
         <v>81.320000000000007</v>
       </c>
       <c r="G12" s="6">
-        <f>G5*About!$A$42</f>
+        <f>G5*About!$A$43</f>
         <v>87.740000000000009</v>
       </c>
       <c r="H12" s="6">
-        <f>H5*About!$A$42</f>
+        <f>H5*About!$A$43</f>
         <v>92.02000000000001</v>
       </c>
       <c r="I12" s="6">
-        <f>I5*About!$A$42</f>
+        <f>I5*About!$A$43</f>
         <v>98.440000000000012</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B13" s="6">
-        <f>B6*About!$A$42</f>
+        <f>B6*About!$A$43</f>
         <v>89.88000000000001</v>
       </c>
       <c r="C13" s="6">
-        <f>C6*About!$A$42</f>
+        <f>C6*About!$A$43</f>
         <v>129.47</v>
       </c>
       <c r="D13" s="6">
-        <f>D6*About!$A$42</f>
+        <f>D6*About!$A$43</f>
         <v>144.45000000000002</v>
       </c>
       <c r="E13" s="6">
-        <f>E6*About!$A$42</f>
+        <f>E6*About!$A$43</f>
         <v>159.43</v>
       </c>
       <c r="F13" s="6">
-        <f>F6*About!$A$42</f>
+        <f>F6*About!$A$43</f>
         <v>176.55</v>
       </c>
       <c r="G13" s="6">
-        <f>G6*About!$A$42</f>
+        <f>G6*About!$A$43</f>
         <v>192.60000000000002</v>
       </c>
       <c r="H13" s="6">
-        <f>H6*About!$A$42</f>
+        <f>H6*About!$A$43</f>
         <v>206.51000000000002</v>
       </c>
       <c r="I13" s="6">
-        <f>I6*About!$A$42</f>
+        <f>I6*About!$A$43</f>
         <v>221.49</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -1652,9 +1632,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -1768,9 +1748,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
@@ -1920,9 +1900,9 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
@@ -2072,9 +2052,9 @@
         <v>71.6899999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
@@ -2224,9 +2204,9 @@
         <v>98.440000000000055</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
@@ -2376,9 +2356,9 @@
         <v>221.48999999999978</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B22" s="6">
         <v>2016</v>
@@ -2486,9 +2466,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B23" s="6">
         <f>B16</f>
@@ -2631,9 +2611,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B24" s="6">
         <f t="shared" ref="B24:Q27" si="15">B17</f>
@@ -2776,9 +2756,9 @@
         <v>25.894000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B25" s="6">
         <f t="shared" si="15"/>
@@ -2921,9 +2901,9 @@
         <v>69.549999999999727</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" si="15"/>
@@ -3066,9 +3046,9 @@
         <v>95.871999999999844</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B27" s="6">
         <f t="shared" si="15"/>
@@ -3211,9 +3191,9 @@
         <v>215.49799999999959</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B29" s="6">
         <v>2016</v>
@@ -3321,9 +3301,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30:AI33" si="16">B24/$AJ24</f>
@@ -3466,9 +3446,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <f t="shared" si="16"/>
@@ -3611,9 +3591,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <f t="shared" si="16"/>
@@ -3756,9 +3736,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <f t="shared" si="16"/>
@@ -3901,9 +3881,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B35" s="6">
         <v>2014</v>
@@ -3922,9 +3902,9 @@
       <c r="O35" s="6"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>311</v>
@@ -3936,9 +3916,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>311</v>
@@ -3950,9 +3930,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>311</v>
@@ -3964,9 +3944,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>311</v>
@@ -3978,9 +3958,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>311</v>
@@ -3992,9 +3972,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B42" s="6">
         <v>2014</v>
@@ -4006,9 +3986,9 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>198</v>
@@ -4020,9 +4000,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>198</v>
@@ -4034,9 +4014,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>198</v>
@@ -4048,9 +4028,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>198</v>
@@ -4062,9 +4042,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>198</v>
@@ -4076,9 +4056,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B49" s="2">
         <v>2014</v>
@@ -4147,9 +4127,9 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B50" s="6">
         <f t="shared" ref="B50:H50" si="18">TREND($B36:$C36,$B$35:$C$35,B$49)</f>
@@ -4255,9 +4235,9 @@
       <c r="AK50" s="6"/>
       <c r="AL50" s="6"/>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B51" s="6">
         <f t="shared" ref="B51:B54" si="20">TREND($B37:$C37,$B$35:$C$35,B$49)</f>
@@ -4363,9 +4343,9 @@
       <c r="AK51" s="6"/>
       <c r="AL51" s="6"/>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B52" s="6">
         <f t="shared" si="20"/>
@@ -4471,9 +4451,9 @@
       <c r="AK52" s="6"/>
       <c r="AL52" s="6"/>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B53" s="6">
         <f t="shared" si="20"/>
@@ -4579,9 +4559,9 @@
       <c r="AK53" s="6"/>
       <c r="AL53" s="6"/>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <f t="shared" si="20"/>
@@ -4687,9 +4667,9 @@
       <c r="AK54" s="6"/>
       <c r="AL54" s="6"/>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2">
         <v>2014</v>
@@ -4758,9 +4738,9 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B57" s="6">
         <f t="shared" ref="B57:H57" si="23">TREND($B43:$C43,$B$42:$C$42,B$49)</f>
@@ -4851,9 +4831,9 @@
         <v>197.00000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B58" s="6">
         <f t="shared" ref="B58:B61" si="25">TREND($B44:$C44,$B$42:$C$42,B$49)</f>
@@ -4944,9 +4924,9 @@
         <v>196.00000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B59" s="6">
         <f t="shared" si="25"/>
@@ -5037,9 +5017,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B60" s="6">
         <f t="shared" si="25"/>
@@ -5130,9 +5110,9 @@
         <v>191.00000000000006</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B61" s="6">
         <f t="shared" si="25"/>
@@ -5223,9 +5203,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B64" s="6">
         <v>2016</v>
@@ -5295,9 +5275,9 @@
       </c>
       <c r="X64" s="6"/>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B65" s="6">
         <f>B50</f>
@@ -5388,9 +5368,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B66" s="6">
         <f t="shared" ref="B66:Q69" si="29">B51</f>
@@ -5481,9 +5461,9 @@
         <v>265.00000000000006</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B67" s="6">
         <f t="shared" si="29"/>
@@ -5574,9 +5554,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B68" s="6">
         <f t="shared" si="29"/>
@@ -5667,9 +5647,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B69" s="6">
         <f t="shared" si="29"/>
@@ -5760,9 +5740,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B71" s="6">
         <v>2016</v>
@@ -5831,9 +5811,9 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B72" s="6">
         <f>B57</f>
@@ -5924,9 +5904,9 @@
         <v>197.00000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B73" s="6">
         <f t="shared" ref="B73:W73" si="31">B58</f>
@@ -6017,9 +5997,9 @@
         <v>196.00000000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B74" s="6">
         <f t="shared" ref="B74:W74" si="32">B59</f>
@@ -6110,9 +6090,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B75" s="6">
         <f t="shared" ref="B75:W76" si="33">B60</f>
@@ -6203,9 +6183,9 @@
         <v>191.00000000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B76" s="6">
         <f t="shared" si="33"/>
@@ -6296,9 +6276,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B78" s="6">
         <v>2016</v>
@@ -6367,9 +6347,9 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B79" s="5">
         <v>0</v>
@@ -6459,9 +6439,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B80" s="5">
         <v>0</v>
@@ -6551,9 +6531,9 @@
         <v>0.13333333333332575</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B81" s="5">
         <v>0</v>
@@ -6643,9 +6623,9 @@
         <v>0.26666666666665151</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B82" s="5">
         <v>0</v>
@@ -6735,9 +6715,9 @@
         <v>0.4666666666665833</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B83" s="5">
         <v>0</v>
@@ -6827,9 +6807,9 @@
         <v>0.73333333333334849</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B86" s="6">
         <v>2016</v>
@@ -6898,9 +6878,9 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B87" s="5">
         <v>0</v>
@@ -6990,9 +6970,9 @@
         <v>6.6666666666662877E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B88" s="5">
         <v>0</v>
@@ -7082,9 +7062,9 @@
         <v>6.6666666666662877E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B89" s="5">
         <v>0</v>
@@ -7174,9 +7154,9 @@
         <v>0.26666666666665151</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B90" s="5">
         <v>0</v>
@@ -7266,9 +7246,9 @@
         <v>0.19999999999998863</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B91" s="5">
         <v>1</v>
@@ -7358,17 +7338,17 @@
         <v>0.66666666666651508</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B94" s="5">
         <f>SUM(C80:W80)</f>
@@ -7378,9 +7358,9 @@
         <v>46060.181540000005</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B95" s="5">
         <f t="shared" ref="B95:B96" si="38">SUM(C81:W81)</f>
@@ -7390,9 +7370,9 @@
         <v>201720.00146999999</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B96" s="5">
         <f t="shared" si="38"/>
@@ -7402,17 +7382,17 @@
         <v>261331.7605</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B99">
         <v>2430</v>
@@ -7422,9 +7402,9 @@
         <v>25.894000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B100">
         <v>2950</v>
@@ -7434,9 +7414,9 @@
         <v>69.549999999999727</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B101">
         <v>3350</v>
@@ -7446,25 +7426,25 @@
         <v>95.871999999999844</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
     </row>
   </sheetData>
@@ -7474,12 +7454,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ162"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -7489,9 +7469,9 @@
     <col min="6" max="36" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -7529,14 +7509,14 @@
       <c r="AI1" s="15"/>
       <c r="AJ1" s="15"/>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -7644,22 +7624,22 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>85.074560000000005</v>
@@ -7767,9 +7747,9 @@
         <v>79.372389999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>38.255319999999998</v>
@@ -7877,9 +7857,9 @@
         <v>49.688769999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>44.918680000000002</v>
@@ -7987,9 +7967,9 @@
         <v>44.805860000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>35.443179999999998</v>
@@ -8097,9 +8077,9 @@
         <v>35.455179999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>33.06044</v>
@@ -8207,9 +8187,9 @@
         <v>29.039069999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>29.757449999999999</v>
@@ -8317,9 +8297,9 @@
         <v>22.003</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>36.493560000000002</v>
@@ -8427,9 +8407,9 @@
         <v>32.67933</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>107.7955</v>
@@ -8537,9 +8517,9 @@
         <v>107.81504</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>33.091320000000003</v>
@@ -8647,9 +8627,9 @@
         <v>33.111759999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>193.44475</v>
@@ -8757,9 +8737,9 @@
         <v>421.34273999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B16">
         <v>87.01397</v>
@@ -8867,14 +8847,14 @@
         <v>103.23939</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -8982,22 +8962,22 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>254906.8125</v>
@@ -9105,9 +9085,9 @@
         <v>197049.67188000001</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B23">
         <v>40939.320310000003</v>
@@ -9215,9 +9195,9 @@
         <v>40939.320310000003</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B24">
         <v>191368.95313000001</v>
@@ -9325,9 +9305,9 @@
         <v>191368.95313000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <v>91503.195309999996</v>
@@ -9435,9 +9415,9 @@
         <v>91503.195309999996</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>83635.914059999996</v>
@@ -9545,9 +9525,9 @@
         <v>67040.742190000004</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>76623.976559999996</v>
@@ -9655,9 +9635,9 @@
         <v>28313.728520000001</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>202422.32813000001</v>
@@ -9765,9 +9745,9 @@
         <v>141029.5</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B29">
         <v>147293</v>
@@ -9875,9 +9855,9 @@
         <v>147293</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B30">
         <v>123271.57031</v>
@@ -9985,9 +9965,9 @@
         <v>123271.57031</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B31">
         <v>27011.095700000002</v>
@@ -10095,9 +10075,9 @@
         <v>27011.095700000002</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B32">
         <v>27011.095700000002</v>
@@ -10205,14 +10185,14 @@
         <v>27011.095700000002</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>2016</v>
@@ -10320,22 +10300,22 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>5877.9599600000001</v>
@@ -10443,9 +10423,9 @@
         <v>5877.9599600000001</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>4651.5600599999998</v>
@@ -10553,9 +10533,9 @@
         <v>4651.5600599999998</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>8032.9199200000003</v>
@@ -10663,9 +10643,9 @@
         <v>8032.9199200000003</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>3591.5998500000001</v>
@@ -10773,9 +10753,9 @@
         <v>3591.5998500000001</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>3723</v>
@@ -10883,9 +10863,9 @@
         <v>3669.9086900000002</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>2715.6001000000001</v>
@@ -10993,9 +10973,9 @@
         <v>2337.59204</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>6000.6000999999997</v>
@@ -11103,9 +11083,9 @@
         <v>6000.6000999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>5676.4799800000001</v>
@@ -11213,9 +11193,9 @@
         <v>5676.4799800000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>7130.6401400000004</v>
@@ -11323,9 +11303,9 @@
         <v>7130.6401400000004</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>481.79998999999998</v>
@@ -11433,9 +11413,9 @@
         <v>481.79998999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>770.88</v>
@@ -11543,14 +11523,14 @@
         <v>770.88</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:36">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>2016</v>
@@ -11658,9 +11638,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B52">
         <f t="shared" ref="B52:AJ52" si="0">B6-(B22/B38)</f>
@@ -11803,9 +11783,9 @@
         <v>45.84891021773894</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B53">
         <f t="shared" ref="B53:AJ53" si="1">B7-(B23/B39)</f>
@@ -11948,9 +11928,9 @@
         <v>40.887567869547446</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B54">
         <f t="shared" ref="B54:AJ54" si="2">B8-(B24/B40)</f>
@@ -12093,9 +12073,9 @@
         <v>20.982772625066978</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B55">
         <f t="shared" ref="B55:AJ55" si="3">B9-(B25/B41)</f>
@@ -12238,9 +12218,9 @@
         <v>9.978178348493639</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B56">
         <f t="shared" ref="B56:AJ56" si="4">B10-(B26/B42)</f>
@@ -12383,9 +12363,9 @@
         <v>10.771383293604043</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B57">
         <f t="shared" ref="B57:AJ57" si="5">B11-(B27/B43)</f>
@@ -12528,9 +12508,9 @@
         <v>9.8906518932704781</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <f t="shared" ref="B58:AJ58" si="6">B12-(B28/B44)</f>
@@ -12673,9 +12653,9 @@
         <v>9.1767639816446014</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B59">
         <f t="shared" ref="B59:AJ59" si="7">B13-(B29/B45)</f>
@@ -12818,9 +12798,9 @@
         <v>81.867093293773792</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B60">
         <f t="shared" ref="B60:AJ60" si="8">B14-(B30/B46)</f>
@@ -12963,9 +12943,9 @@
         <v>15.824171804587294</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B61">
         <f t="shared" ref="B61:AJ61" si="9">B15-(B31/B47)</f>
@@ -13108,9 +13088,9 @@
         <v>365.27985859562307</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B62">
         <f t="shared" ref="B62:AJ62" si="10">B16-(B32/B48)</f>
@@ -13253,9 +13233,9 @@
         <v>68.200089849522612</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -13293,34 +13273,34 @@
       <c r="AI64" s="16"/>
       <c r="AJ64" s="16"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C67">
         <v>2917</v>
@@ -13332,9 +13312,9 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C68">
         <v>3727</v>
@@ -13346,9 +13326,9 @@
         <v>51.37</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C69">
         <v>6492</v>
@@ -13360,12 +13340,12 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C70">
         <v>912</v>
@@ -13377,9 +13357,9 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C71">
         <v>1017</v>
@@ -13391,9 +13371,9 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C72">
         <v>2072</v>
@@ -13405,12 +13385,12 @@
         <v>31.77</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C73">
         <v>968</v>
@@ -13422,9 +13402,9 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C74">
         <v>671</v>
@@ -13436,9 +13416,9 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C75">
         <v>6978</v>
@@ -13450,12 +13430,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C76">
         <v>5366</v>
@@ -13467,9 +13447,9 @@
         <v>93.23</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C77">
         <v>1477</v>
@@ -13481,9 +13461,9 @@
         <v>17.440000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C78">
         <v>1744</v>
@@ -13495,12 +13475,12 @@
         <v>17.440000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C79">
         <v>3659</v>
@@ -13512,12 +13492,12 @@
         <v>105.58</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C80">
         <v>2448</v>
@@ -13529,9 +13509,9 @@
         <v>112.85</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C81">
         <v>8271</v>
@@ -13543,12 +13523,12 @@
         <v>392.6</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C82">
         <v>2651</v>
@@ -13560,12 +13540,12 @@
         <v>15.15</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C83" s="12">
         <v>1980</v>
@@ -13577,9 +13557,9 @@
         <v>39.53</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C84">
         <v>6154</v>
@@ -13591,12 +13571,12 @@
         <v>73.959999999999994</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C85">
         <v>4052</v>
@@ -13608,12 +13588,12 @@
         <v>67.23</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C86" s="12">
         <v>3279</v>
@@ -13625,24 +13605,24 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:36">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:36">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:36">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B92">
         <v>2016</v>
@@ -13750,22 +13730,22 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="94" spans="1:36">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:36">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B95" s="13">
         <v>2.0380500000000001</v>
@@ -13873,9 +13853,9 @@
         <v>2.4294899999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B96" s="13">
         <v>3.3650000000000002</v>
@@ -13983,9 +13963,9 @@
         <v>5.0463899999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B97" s="13">
         <v>0.72799999999999998</v>
@@ -14093,9 +14073,9 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B98" s="13">
         <v>0</v>
@@ -14203,9 +14183,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B99" s="13">
         <v>0</v>
@@ -14313,9 +14293,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B100" s="13">
         <v>0</v>
@@ -14423,9 +14403,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B101" s="13">
         <v>0</v>
@@ -14533,9 +14513,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B102" s="13">
         <v>4</v>
@@ -14643,9 +14623,9 @@
         <v>4.0005199999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B103" s="13">
         <v>0</v>
@@ -14753,9 +14733,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B104" s="13">
         <v>11.24</v>
@@ -14863,9 +14843,9 @@
         <v>34.029800000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B105" s="13">
         <v>3.3650000000000002</v>
@@ -14973,14 +14953,14 @@
         <v>5.0463899999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="108" spans="1:36">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B108">
         <v>2016</v>
@@ -15088,22 +15068,22 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="110" spans="1:36">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:36">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B111">
         <v>10428000</v>
@@ -15211,9 +15191,9 @@
         <v>10428000</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="B112">
         <v>7658000</v>
@@ -15321,9 +15301,9 @@
         <v>7658000</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="B113">
         <v>10459000</v>
@@ -15431,9 +15411,9 @@
         <v>10459000</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -15541,9 +15521,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -15651,9 +15631,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -15761,9 +15741,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -15871,9 +15851,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="B118">
         <v>14500000</v>
@@ -15981,9 +15961,9 @@
         <v>14500000</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -16091,9 +16071,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="B120">
         <v>10814000</v>
@@ -16201,9 +16181,9 @@
         <v>10814000</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B121">
         <v>10387000</v>
@@ -16311,27 +16291,27 @@
         <v>10387000</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:36">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="125" spans="1:36">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:36">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B126">
         <v>0.61</v>
@@ -16439,9 +16419,9 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="B127">
         <v>0.48299999999999998</v>
@@ -16549,9 +16529,9 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="B128">
         <v>0.91700000000000004</v>
@@ -16659,9 +16639,9 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="B129">
         <v>0.373</v>
@@ -16769,9 +16749,9 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B130">
         <v>0.34</v>
@@ -16879,9 +16859,9 @@
         <v>0.33572000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B131">
         <v>0.25900000000000001</v>
@@ -16989,9 +16969,9 @@
         <v>0.23263</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="B132">
         <v>0.19800000000000001</v>
@@ -17099,9 +17079,9 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="B133">
         <v>0.58899999999999997</v>
@@ -17209,9 +17189,9 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="B134">
         <v>0.74</v>
@@ -17319,9 +17299,9 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="B135">
         <v>0.05</v>
@@ -17429,9 +17409,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B136">
         <v>0.08</v>
@@ -17539,208 +17519,208 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="139" spans="1:36">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B139" s="11">
         <f>E67*1000/(8760*B126)+D67+B95*B111/10^6</f>
         <v>31.554060196017666</v>
       </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B140" s="11">
         <f>E70*1000/(8760*B127)+D70+B96*B112/10^6</f>
         <v>32.479486987624909</v>
       </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B141" s="11">
         <f>E76*1000/(8760*B128)+D76+B97*B113/10^6</f>
         <v>21.360143345612805</v>
       </c>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B142" s="11">
         <f>E82*1000/(8760*B129)+D82+B98*B114/10^6</f>
         <v>10.39660068309523</v>
       </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B143" s="11">
         <f>E83*1000/(8760*B130)+D83+B99*B115/10^6</f>
         <v>13.272226698898738</v>
       </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B144" s="11">
         <f>E86*1000/(8760*B131)+D86+B100*B116/10^6</f>
         <v>10.877805398353344</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B145" s="11">
         <f>E85*1000/(8760*B132)+D85+B101*B117/10^6</f>
         <v>38.760896637608965</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B146" s="11">
         <f>E79*1000/(8760*B133)+D79+B102*B118/10^6</f>
         <v>83.722667938073201</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B147" s="11">
         <f>E80*1000/(8760*B134)+D80+B103*B119/10^6</f>
         <v>17.408675799086758</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B148" s="11">
         <f>E73*1000/(8760*B135)+D73+B104*B120/10^6</f>
         <v>153.74735086757991</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B149" s="11">
         <f>E73*1000/(8760*B136)+D73+B105*B121/10^6</f>
         <v>60.86599929223744</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B152" s="14">
         <f>B139/$B$139</f>
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B153" s="14">
         <f t="shared" ref="B153:B162" si="11">B140/$B$139</f>
         <v>1.0293282951816147</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B154" s="14">
         <f t="shared" si="11"/>
         <v>0.67693802993722496</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B155" s="14">
         <f t="shared" si="11"/>
         <v>0.329485353660045</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B156" s="14">
         <f t="shared" si="11"/>
         <v>0.42061866575806883</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B157" s="14">
         <f t="shared" si="11"/>
         <v>0.34473552153919629</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B158" s="14">
         <f t="shared" si="11"/>
         <v>1.2283964851693112</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B159" s="14">
         <f t="shared" si="11"/>
         <v>2.6533088742931272</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B160" s="14">
         <f t="shared" si="11"/>
         <v>0.55170953249572141</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B161" s="14">
         <f t="shared" si="11"/>
         <v>4.8725061026214265</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B162" s="14">
         <f t="shared" si="11"/>
@@ -17753,137 +17733,164 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B2" s="6">
         <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B152</f>
         <v>2910</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6">
         <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B153</f>
         <v>2995.3453389784991</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6">
         <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B154</f>
         <v>1969.8896671173247</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6">
         <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B155</f>
         <v>958.80237915073099</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B6" s="6">
         <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B156</f>
         <v>1224.0003173559803</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6">
         <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B157</f>
         <v>1003.1803676790612</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="B8" s="6">
         <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B158</f>
         <v>3574.6337718426958</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6">
         <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B159</f>
         <v>7721.1288241930006</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6">
         <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B160</f>
         <v>1605.4747395625493</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B13" s="6">
         <f>B2</f>
         <v>2910</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="6">
         <f>B6</f>
         <v>1224.0003173559803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="6">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="6">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="6">
+        <f>B9</f>
+        <v>7721.1288241930006</v>
       </c>
     </row>
   </sheetData>
@@ -17892,24 +17899,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18143,14 +18132,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D69189DD-77EC-4694-A0DF-F2656E398CD3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A01BB41-D48A-42A8-B947-45547626A29A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2434139-F85A-4116-BDF6-BBB952CC1327}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4819B4BB-15D0-4572-9BB9-016374C323ED}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20396956-C4D7-489A-98C0-7F014E8B2EB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BE8E50-4072-4F84-A9E6-9BA596F729BF}"/>
 </file>
--- a/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
+++ b/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\ARpUIiRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\Hong Kong\Models\eps-hongkong\InputData\elec\ARpUIiRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="159">
   <si>
     <t>ARpUIiRC Annual Retirement per Unit Increase in Relative Cost</t>
   </si>
@@ -127,29 +127,6 @@
   </si>
   <si>
     <t>into two categories:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cost per Unit Power Doesn't Determine Peaker Retirements:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Peaker plants</t>
-    </r>
   </si>
   <si>
     <t>(natural gas peakers and petroleum plants) are run primarily to provide grid</t>
@@ -514,6 +491,35 @@
   <si>
     <t>Currency Conversion</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cost per Unit Power Doesn't Determine Peaker Retirements:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Peaker plants</t>
+    </r>
+  </si>
+  <si>
+    <t>This varaible is not used in the Hong Kong EPS, because the power sector is small and centrally planned.</t>
+  </si>
+  <si>
+    <t>Therefore, we don't assume price based retirements.</t>
+  </si>
 </sst>
 </file>
 
@@ -523,7 +529,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,8 +567,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +601,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -595,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -607,7 +633,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -615,6 +640,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,195 +947,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="40" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>1.07</v>
       </c>
-      <c r="B43" t="s">
-        <v>51</v>
+      <c r="B44" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL113"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1130,7 +1394,7 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -1159,7 +1423,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1188,7 +1452,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -1217,7 +1481,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -1246,7 +1510,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>54</v>
@@ -1275,7 +1539,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>84</v>
@@ -1304,7 +1568,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>2015</v>
@@ -1333,192 +1597,192 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="6">
-        <f>B2*About!$A$43</f>
+        <f>B2*About!$A$44</f>
         <v>0</v>
       </c>
       <c r="C9" s="6">
-        <f>C2*About!$A$43</f>
+        <f>C2*About!$A$44</f>
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <f>D2*About!$A$43</f>
+        <f>D2*About!$A$44</f>
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <f>E2*About!$A$43</f>
+        <f>E2*About!$A$44</f>
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <f>F2*About!$A$43</f>
+        <f>F2*About!$A$44</f>
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <f>G2*About!$A$43</f>
+        <f>G2*About!$A$44</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
-        <f>H2*About!$A$43</f>
+        <f>H2*About!$A$44</f>
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <f>I2*About!$A$43</f>
+        <f>I2*About!$A$44</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="6">
-        <f>B3*About!$A$43</f>
+        <f>B3*About!$A$44</f>
         <v>11.770000000000001</v>
       </c>
       <c r="C10" s="6">
-        <f>C3*About!$A$43</f>
+        <f>C3*About!$A$44</f>
         <v>11.770000000000001</v>
       </c>
       <c r="D10" s="6">
-        <f>D3*About!$A$43</f>
+        <f>D3*About!$A$44</f>
         <v>13.91</v>
       </c>
       <c r="E10" s="6">
-        <f>E3*About!$A$43</f>
+        <f>E3*About!$A$44</f>
         <v>16.05</v>
       </c>
       <c r="F10" s="6">
-        <f>F3*About!$A$43</f>
+        <f>F3*About!$A$44</f>
         <v>19.260000000000002</v>
       </c>
       <c r="G10" s="6">
-        <f>G3*About!$A$43</f>
+        <f>G3*About!$A$44</f>
         <v>21.400000000000002</v>
       </c>
       <c r="H10" s="6">
-        <f>H3*About!$A$43</f>
+        <f>H3*About!$A$44</f>
         <v>24.610000000000003</v>
       </c>
       <c r="I10" s="6">
-        <f>I3*About!$A$43</f>
+        <f>I3*About!$A$44</f>
         <v>26.75</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
-        <f>B4*About!$A$43</f>
+        <f>B4*About!$A$44</f>
         <v>38.520000000000003</v>
       </c>
       <c r="C11" s="6">
-        <f>C4*About!$A$43</f>
+        <f>C4*About!$A$44</f>
         <v>42.800000000000004</v>
       </c>
       <c r="D11" s="6">
-        <f>D4*About!$A$43</f>
+        <f>D4*About!$A$44</f>
         <v>48.150000000000006</v>
       </c>
       <c r="E11" s="6">
-        <f>E4*About!$A$43</f>
+        <f>E4*About!$A$44</f>
         <v>52.43</v>
       </c>
       <c r="F11" s="6">
-        <f>F4*About!$A$43</f>
+        <f>F4*About!$A$44</f>
         <v>56.71</v>
       </c>
       <c r="G11" s="6">
-        <f>G4*About!$A$43</f>
+        <f>G4*About!$A$44</f>
         <v>62.06</v>
       </c>
       <c r="H11" s="6">
-        <f>H4*About!$A$43</f>
+        <f>H4*About!$A$44</f>
         <v>66.34</v>
       </c>
       <c r="I11" s="6">
-        <f>I4*About!$A$43</f>
+        <f>I4*About!$A$44</f>
         <v>71.69</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
-        <f>B5*About!$A$43</f>
+        <f>B5*About!$A$44</f>
         <v>57.78</v>
       </c>
       <c r="C12" s="6">
-        <f>C5*About!$A$43</f>
+        <f>C5*About!$A$44</f>
         <v>65.27000000000001</v>
       </c>
       <c r="D12" s="6">
-        <f>D5*About!$A$43</f>
+        <f>D5*About!$A$44</f>
         <v>70.62</v>
       </c>
       <c r="E12" s="6">
-        <f>E5*About!$A$43</f>
+        <f>E5*About!$A$44</f>
         <v>75.97</v>
       </c>
       <c r="F12" s="6">
-        <f>F5*About!$A$43</f>
+        <f>F5*About!$A$44</f>
         <v>81.320000000000007</v>
       </c>
       <c r="G12" s="6">
-        <f>G5*About!$A$43</f>
+        <f>G5*About!$A$44</f>
         <v>87.740000000000009</v>
       </c>
       <c r="H12" s="6">
-        <f>H5*About!$A$43</f>
+        <f>H5*About!$A$44</f>
         <v>92.02000000000001</v>
       </c>
       <c r="I12" s="6">
-        <f>I5*About!$A$43</f>
+        <f>I5*About!$A$44</f>
         <v>98.440000000000012</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="6">
-        <f>B6*About!$A$43</f>
+        <f>B6*About!$A$44</f>
         <v>89.88000000000001</v>
       </c>
       <c r="C13" s="6">
-        <f>C6*About!$A$43</f>
+        <f>C6*About!$A$44</f>
         <v>129.47</v>
       </c>
       <c r="D13" s="6">
-        <f>D6*About!$A$43</f>
+        <f>D6*About!$A$44</f>
         <v>144.45000000000002</v>
       </c>
       <c r="E13" s="6">
-        <f>E6*About!$A$43</f>
+        <f>E6*About!$A$44</f>
         <v>159.43</v>
       </c>
       <c r="F13" s="6">
-        <f>F6*About!$A$43</f>
+        <f>F6*About!$A$44</f>
         <v>176.55</v>
       </c>
       <c r="G13" s="6">
-        <f>G6*About!$A$43</f>
+        <f>G6*About!$A$44</f>
         <v>192.60000000000002</v>
       </c>
       <c r="H13" s="6">
-        <f>H6*About!$A$43</f>
+        <f>H6*About!$A$44</f>
         <v>206.51000000000002</v>
       </c>
       <c r="I13" s="6">
-        <f>I6*About!$A$43</f>
+        <f>I6*About!$A$44</f>
         <v>221.49</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -1634,7 +1898,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -1750,7 +2014,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
@@ -1902,7 +2166,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
@@ -2054,7 +2318,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
@@ -2206,7 +2470,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
@@ -2358,7 +2622,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="6">
         <v>2016</v>
@@ -2468,7 +2732,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="6">
         <f>B16</f>
@@ -2613,7 +2877,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="6">
         <f t="shared" ref="B24:Q27" si="15">B17</f>
@@ -2758,7 +3022,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="6">
         <f t="shared" si="15"/>
@@ -2903,7 +3167,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" si="15"/>
@@ -3048,7 +3312,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="6">
         <f t="shared" si="15"/>
@@ -3193,7 +3457,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="6">
         <v>2016</v>
@@ -3303,7 +3567,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30:AI33" si="16">B24/$AJ24</f>
@@ -3448,7 +3712,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <f t="shared" si="16"/>
@@ -3593,7 +3857,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <f t="shared" si="16"/>
@@ -3738,7 +4002,7 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <f t="shared" si="16"/>
@@ -3883,7 +4147,7 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="6">
         <v>2014</v>
@@ -3904,7 +4168,7 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>311</v>
@@ -3918,7 +4182,7 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>311</v>
@@ -3932,7 +4196,7 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>311</v>
@@ -3946,7 +4210,7 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>311</v>
@@ -3960,7 +4224,7 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>311</v>
@@ -3974,7 +4238,7 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="6">
         <v>2014</v>
@@ -3988,7 +4252,7 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>198</v>
@@ -4002,7 +4266,7 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>198</v>
@@ -4016,7 +4280,7 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>198</v>
@@ -4030,7 +4294,7 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>198</v>
@@ -4044,7 +4308,7 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>198</v>
@@ -4058,7 +4322,7 @@
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2">
         <v>2014</v>
@@ -4129,7 +4393,7 @@
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="6">
         <f t="shared" ref="B50:H50" si="18">TREND($B36:$C36,$B$35:$C$35,B$49)</f>
@@ -4237,7 +4501,7 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="6">
         <f t="shared" ref="B51:B54" si="20">TREND($B37:$C37,$B$35:$C$35,B$49)</f>
@@ -4345,7 +4609,7 @@
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="6">
         <f t="shared" si="20"/>
@@ -4453,7 +4717,7 @@
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="6">
         <f t="shared" si="20"/>
@@ -4561,7 +4825,7 @@
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="6">
         <f t="shared" si="20"/>
@@ -4669,7 +4933,7 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2">
         <v>2014</v>
@@ -4740,7 +5004,7 @@
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" s="6">
         <f t="shared" ref="B57:H57" si="23">TREND($B43:$C43,$B$42:$C$42,B$49)</f>
@@ -4833,7 +5097,7 @@
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" s="6">
         <f t="shared" ref="B58:B61" si="25">TREND($B44:$C44,$B$42:$C$42,B$49)</f>
@@ -4926,7 +5190,7 @@
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B59" s="6">
         <f t="shared" si="25"/>
@@ -5019,7 +5283,7 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="6">
         <f t="shared" si="25"/>
@@ -5112,7 +5376,7 @@
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B61" s="6">
         <f t="shared" si="25"/>
@@ -5205,7 +5469,7 @@
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="6">
         <v>2016</v>
@@ -5277,7 +5541,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65" s="6">
         <f>B50</f>
@@ -5370,7 +5634,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="6">
         <f t="shared" ref="B66:Q69" si="29">B51</f>
@@ -5463,7 +5727,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B67" s="6">
         <f t="shared" si="29"/>
@@ -5556,7 +5820,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="6">
         <f t="shared" si="29"/>
@@ -5649,7 +5913,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69" s="6">
         <f t="shared" si="29"/>
@@ -5742,7 +6006,7 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" s="6">
         <v>2016</v>
@@ -5813,7 +6077,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" s="6">
         <f>B57</f>
@@ -5906,7 +6170,7 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B73" s="6">
         <f t="shared" ref="B73:W73" si="31">B58</f>
@@ -5999,7 +6263,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B74" s="6">
         <f t="shared" ref="B74:W74" si="32">B59</f>
@@ -6092,7 +6356,7 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B75" s="6">
         <f t="shared" ref="B75:W76" si="33">B60</f>
@@ -6185,7 +6449,7 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B76" s="6">
         <f t="shared" si="33"/>
@@ -6278,7 +6542,7 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B78" s="6">
         <v>2016</v>
@@ -6349,7 +6613,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79" s="5">
         <v>0</v>
@@ -6441,7 +6705,7 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" s="5">
         <v>0</v>
@@ -6533,7 +6797,7 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="5">
         <v>0</v>
@@ -6625,7 +6889,7 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B82" s="5">
         <v>0</v>
@@ -6717,7 +6981,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" s="5">
         <v>0</v>
@@ -6809,7 +7073,7 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B86" s="6">
         <v>2016</v>
@@ -6880,7 +7144,7 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B87" s="5">
         <v>0</v>
@@ -6972,7 +7236,7 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B88" s="5">
         <v>0</v>
@@ -7064,7 +7328,7 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B89" s="5">
         <v>0</v>
@@ -7156,7 +7420,7 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B90" s="5">
         <v>0</v>
@@ -7248,7 +7512,7 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B91" s="5">
         <v>1</v>
@@ -7340,45 +7604,45 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B94" s="5">
         <f>SUM(C80:W80)</f>
         <v>45.999999999999943</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="9">
         <v>46060.181540000005</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B95" s="5">
         <f t="shared" ref="B95:B96" si="38">SUM(C81:W81)</f>
         <v>202</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="9">
         <v>201720.00146999999</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B96" s="5">
         <f t="shared" si="38"/>
         <v>261</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="9">
         <v>261331.7605</v>
       </c>
     </row>
@@ -7387,12 +7651,12 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B99">
         <v>2430</v>
@@ -7404,7 +7668,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B100">
         <v>2950</v>
@@ -7416,7 +7680,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B101">
         <v>3350</v>
@@ -7470,53 +7734,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
+      <c r="A1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -7626,20 +7890,20 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>85.074560000000005</v>
@@ -7749,7 +8013,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7">
         <v>38.255319999999998</v>
@@ -7859,7 +8123,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>44.918680000000002</v>
@@ -7969,7 +8233,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>35.443179999999998</v>
@@ -8079,7 +8343,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>33.06044</v>
@@ -8189,7 +8453,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>29.757449999999999</v>
@@ -8299,7 +8563,7 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>36.493560000000002</v>
@@ -8409,7 +8673,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <v>107.7955</v>
@@ -8519,7 +8783,7 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>33.091320000000003</v>
@@ -8629,7 +8893,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>193.44475</v>
@@ -8739,7 +9003,7 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <v>87.01397</v>
@@ -8849,12 +9113,12 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -8964,20 +9228,20 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <v>254906.8125</v>
@@ -9087,7 +9351,7 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>40939.320310000003</v>
@@ -9197,7 +9461,7 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24">
         <v>191368.95313000001</v>
@@ -9307,7 +9571,7 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25">
         <v>91503.195309999996</v>
@@ -9417,7 +9681,7 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26">
         <v>83635.914059999996</v>
@@ -9527,7 +9791,7 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27">
         <v>76623.976559999996</v>
@@ -9637,7 +9901,7 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28">
         <v>202422.32813000001</v>
@@ -9747,7 +10011,7 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29">
         <v>147293</v>
@@ -9857,7 +10121,7 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30">
         <v>123271.57031</v>
@@ -9967,7 +10231,7 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31">
         <v>27011.095700000002</v>
@@ -10077,7 +10341,7 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32">
         <v>27011.095700000002</v>
@@ -10187,12 +10451,12 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35">
         <v>2016</v>
@@ -10302,20 +10566,20 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>5877.9599600000001</v>
@@ -10425,7 +10689,7 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>4651.5600599999998</v>
@@ -10535,7 +10799,7 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>8032.9199200000003</v>
@@ -10645,7 +10909,7 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>3591.5998500000001</v>
@@ -10755,7 +11019,7 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>3723</v>
@@ -10865,7 +11129,7 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>2715.6001000000001</v>
@@ -10975,7 +11239,7 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>6000.6000999999997</v>
@@ -11085,7 +11349,7 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>5676.4799800000001</v>
@@ -11195,7 +11459,7 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>7130.6401400000004</v>
@@ -11305,7 +11569,7 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>481.79998999999998</v>
@@ -11415,7 +11679,7 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>770.88</v>
@@ -11525,12 +11789,12 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>2016</v>
@@ -11640,7 +11904,7 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <f t="shared" ref="B52:AJ52" si="0">B6-(B22/B38)</f>
@@ -11785,7 +12049,7 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <f t="shared" ref="B53:AJ53" si="1">B7-(B23/B39)</f>
@@ -11930,7 +12194,7 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <f t="shared" ref="B54:AJ54" si="2">B8-(B24/B40)</f>
@@ -12075,7 +12339,7 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <f t="shared" ref="B55:AJ55" si="3">B9-(B25/B41)</f>
@@ -12220,7 +12484,7 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <f t="shared" ref="B56:AJ56" si="4">B10-(B26/B42)</f>
@@ -12365,7 +12629,7 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <f t="shared" ref="B57:AJ57" si="5">B11-(B27/B43)</f>
@@ -12510,7 +12774,7 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <f t="shared" ref="B58:AJ58" si="6">B12-(B28/B44)</f>
@@ -12655,7 +12919,7 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <f t="shared" ref="B59:AJ59" si="7">B13-(B29/B45)</f>
@@ -12800,7 +13064,7 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <f t="shared" ref="B60:AJ60" si="8">B14-(B30/B46)</f>
@@ -12945,7 +13209,7 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <f t="shared" ref="B61:AJ61" si="9">B15-(B31/B47)</f>
@@ -13090,7 +13354,7 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62">
         <f t="shared" ref="B62:AJ62" si="10">B16-(B32/B48)</f>
@@ -13234,65 +13498,65 @@
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="16"/>
-      <c r="AB64" s="16"/>
-      <c r="AC64" s="16"/>
-      <c r="AD64" s="16"/>
-      <c r="AE64" s="16"/>
-      <c r="AF64" s="16"/>
-      <c r="AG64" s="16"/>
-      <c r="AH64" s="16"/>
-      <c r="AI64" s="16"/>
-      <c r="AJ64" s="16"/>
+      <c r="A64" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="15"/>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="15"/>
+      <c r="AF64" s="15"/>
+      <c r="AG64" s="15"/>
+      <c r="AH64" s="15"/>
+      <c r="AI64" s="15"/>
+      <c r="AJ64" s="15"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -13300,43 +13564,43 @@
         <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C67">
         <v>2917</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="10">
         <v>4.47</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="10">
         <v>31.16</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C68">
         <v>3727</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="10">
         <v>7.22</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="10">
         <v>51.37</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C69">
         <v>6492</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="10">
         <v>8.44</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="10">
         <v>72.8</v>
       </c>
     </row>
@@ -13345,43 +13609,43 @@
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C70">
         <v>912</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="10">
         <v>3.6</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="10">
         <v>13.16</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71">
         <v>1017</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="10">
         <v>3.27</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="10">
         <v>15.36</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72">
         <v>2072</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="10">
         <v>6.78</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="10">
         <v>31.77</v>
       </c>
     </row>
@@ -13390,43 +13654,43 @@
         <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C73">
         <v>968</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="10">
         <v>15.44</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="10">
         <v>7.34</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C74">
         <v>671</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="10">
         <v>10.37</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="10">
         <v>7.04</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C75">
         <v>6978</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="10">
         <v>42.97</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="10">
         <v>0</v>
       </c>
     </row>
@@ -13435,43 +13699,43 @@
         <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C76">
         <v>5366</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="10">
         <v>2.14</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="10">
         <v>93.23</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C77">
         <v>1477</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="10">
         <v>7.75</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="10">
         <v>17.440000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C78">
         <v>1744</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="10">
         <v>7.75</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="10">
         <v>17.440000000000001</v>
       </c>
     </row>
@@ -13480,15 +13744,15 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C79">
         <v>3659</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="10">
         <v>5.26</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="10">
         <v>105.58</v>
       </c>
     </row>
@@ -13497,29 +13761,29 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C80">
         <v>2448</v>
       </c>
-      <c r="D80" s="11">
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
+      <c r="D80" s="10">
+        <v>0</v>
+      </c>
+      <c r="E80" s="10">
         <v>112.85</v>
       </c>
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C81">
         <v>8271</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D81" s="10">
         <v>8.74</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="10">
         <v>392.6</v>
       </c>
     </row>
@@ -13528,15 +13792,15 @@
         <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C82">
         <v>2651</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="10">
         <v>5.76</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="10">
         <v>15.15</v>
       </c>
     </row>
@@ -13545,29 +13809,29 @@
         <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83" s="12">
+        <v>127</v>
+      </c>
+      <c r="C83" s="11">
         <v>1980</v>
       </c>
-      <c r="D83" s="11">
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
+      <c r="D83" s="10">
+        <v>0</v>
+      </c>
+      <c r="E83" s="10">
         <v>39.53</v>
       </c>
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C84">
         <v>6154</v>
       </c>
-      <c r="D84" s="11">
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
+      <c r="D84" s="10">
+        <v>0</v>
+      </c>
+      <c r="E84" s="10">
         <v>73.959999999999994</v>
       </c>
     </row>
@@ -13576,15 +13840,15 @@
         <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C85">
         <v>4052</v>
       </c>
-      <c r="D85" s="11">
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
+      <c r="D85" s="10">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10">
         <v>67.23</v>
       </c>
     </row>
@@ -13593,36 +13857,36 @@
         <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" s="12">
+        <v>130</v>
+      </c>
+      <c r="C86" s="11">
         <v>3279</v>
       </c>
-      <c r="D86" s="11">
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
+      <c r="D86" s="10">
+        <v>0</v>
+      </c>
+      <c r="E86" s="10">
         <v>24.68</v>
       </c>
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92">
         <v>2016</v>
@@ -13732,1235 +13996,1235 @@
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>66</v>
-      </c>
-      <c r="B95" s="13">
+        <v>65</v>
+      </c>
+      <c r="B95" s="12">
         <v>2.0380500000000001</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="12">
         <v>2.0236299999999998</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="12">
         <v>2.13592</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="12">
         <v>2.1636899999999999</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F95" s="12">
         <v>2.19679</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G95" s="12">
         <v>2.1979600000000001</v>
       </c>
-      <c r="H95" s="13">
+      <c r="H95" s="12">
         <v>2.1972299999999998</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I95" s="12">
         <v>2.20364</v>
       </c>
-      <c r="J95" s="13">
+      <c r="J95" s="12">
         <v>2.1963499999999998</v>
       </c>
-      <c r="K95" s="13">
+      <c r="K95" s="12">
         <v>2.1967400000000001</v>
       </c>
-      <c r="L95" s="13">
+      <c r="L95" s="12">
         <v>2.2004100000000002</v>
       </c>
-      <c r="M95" s="13">
+      <c r="M95" s="12">
         <v>2.1949399999999999</v>
       </c>
-      <c r="N95" s="13">
+      <c r="N95" s="12">
         <v>2.19015</v>
       </c>
-      <c r="O95" s="13">
+      <c r="O95" s="12">
         <v>2.1879499999999998</v>
       </c>
-      <c r="P95" s="13">
+      <c r="P95" s="12">
         <v>2.1889099999999999</v>
       </c>
-      <c r="Q95" s="13">
+      <c r="Q95" s="12">
         <v>2.2016</v>
       </c>
-      <c r="R95" s="13">
+      <c r="R95" s="12">
         <v>2.2150699999999999</v>
       </c>
-      <c r="S95" s="13">
+      <c r="S95" s="12">
         <v>2.2278600000000002</v>
       </c>
-      <c r="T95" s="13">
+      <c r="T95" s="12">
         <v>2.24119</v>
       </c>
-      <c r="U95" s="13">
+      <c r="U95" s="12">
         <v>2.2486299999999999</v>
       </c>
-      <c r="V95" s="13">
+      <c r="V95" s="12">
         <v>2.2615099999999999</v>
       </c>
-      <c r="W95" s="13">
+      <c r="W95" s="12">
         <v>2.2719299999999998</v>
       </c>
-      <c r="X95" s="13">
+      <c r="X95" s="12">
         <v>2.2865899999999999</v>
       </c>
-      <c r="Y95" s="13">
+      <c r="Y95" s="12">
         <v>2.29833</v>
       </c>
-      <c r="Z95" s="13">
+      <c r="Z95" s="12">
         <v>2.3113800000000002</v>
       </c>
-      <c r="AA95" s="13">
+      <c r="AA95" s="12">
         <v>2.32206</v>
       </c>
-      <c r="AB95" s="13">
+      <c r="AB95" s="12">
         <v>2.3340000000000001</v>
       </c>
-      <c r="AC95" s="13">
+      <c r="AC95" s="12">
         <v>2.3459300000000001</v>
       </c>
-      <c r="AD95" s="13">
+      <c r="AD95" s="12">
         <v>2.3578700000000001</v>
       </c>
-      <c r="AE95" s="13">
+      <c r="AE95" s="12">
         <v>2.3698100000000002</v>
       </c>
-      <c r="AF95" s="13">
+      <c r="AF95" s="12">
         <v>2.3817400000000002</v>
       </c>
-      <c r="AG95" s="13">
+      <c r="AG95" s="12">
         <v>2.3936799999999998</v>
       </c>
-      <c r="AH95" s="13">
+      <c r="AH95" s="12">
         <v>2.4056199999999999</v>
       </c>
-      <c r="AI95" s="13">
+      <c r="AI95" s="12">
         <v>2.4175499999999999</v>
       </c>
-      <c r="AJ95" s="13">
+      <c r="AJ95" s="12">
         <v>2.4294899999999999</v>
       </c>
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>67</v>
-      </c>
-      <c r="B96" s="13">
+        <v>66</v>
+      </c>
+      <c r="B96" s="12">
         <v>3.3650000000000002</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="12">
         <v>3.7730000000000001</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="12">
         <v>4.0010000000000003</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E96" s="12">
         <v>4.2549999999999999</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F96" s="12">
         <v>4.5510000000000002</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G96" s="12">
         <v>4.5410000000000004</v>
       </c>
-      <c r="H96" s="13">
+      <c r="H96" s="12">
         <v>4.593</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I96" s="12">
         <v>4.8499999999999996</v>
       </c>
-      <c r="J96" s="13">
+      <c r="J96" s="12">
         <v>5.0709999999999997</v>
       </c>
-      <c r="K96" s="13">
+      <c r="K96" s="12">
         <v>5.2350000000000003</v>
       </c>
-      <c r="L96" s="13">
+      <c r="L96" s="12">
         <v>5.2190000000000003</v>
       </c>
-      <c r="M96" s="13">
+      <c r="M96" s="12">
         <v>5.2350000000000003</v>
       </c>
-      <c r="N96" s="13">
+      <c r="N96" s="12">
         <v>5.2910000000000004</v>
       </c>
-      <c r="O96" s="13">
+      <c r="O96" s="12">
         <v>5.3710000000000004</v>
       </c>
-      <c r="P96" s="13">
+      <c r="P96" s="12">
         <v>5.407</v>
       </c>
-      <c r="Q96" s="13">
+      <c r="Q96" s="12">
         <v>5.3449999999999998</v>
       </c>
-      <c r="R96" s="13">
+      <c r="R96" s="12">
         <v>5.3120000000000003</v>
       </c>
-      <c r="S96" s="13">
+      <c r="S96" s="12">
         <v>5.2880000000000003</v>
       </c>
-      <c r="T96" s="13">
+      <c r="T96" s="12">
         <v>5.2539999999999996</v>
       </c>
-      <c r="U96" s="13">
+      <c r="U96" s="12">
         <v>5.2210000000000001</v>
       </c>
-      <c r="V96" s="13">
+      <c r="V96" s="12">
         <v>5.2510000000000003</v>
       </c>
-      <c r="W96" s="13">
+      <c r="W96" s="12">
         <v>5.2190000000000003</v>
       </c>
-      <c r="X96" s="13">
+      <c r="X96" s="12">
         <v>5.202</v>
       </c>
-      <c r="Y96" s="13">
+      <c r="Y96" s="12">
         <v>5.2320000000000002</v>
       </c>
-      <c r="Z96" s="13">
+      <c r="Z96" s="12">
         <v>5.202</v>
       </c>
-      <c r="AA96" s="13">
+      <c r="AA96" s="12">
         <v>5.1743800000000002</v>
       </c>
-      <c r="AB96" s="13">
+      <c r="AB96" s="12">
         <v>5.1601600000000003</v>
       </c>
-      <c r="AC96" s="13">
+      <c r="AC96" s="12">
         <v>5.1459400000000004</v>
       </c>
-      <c r="AD96" s="13">
+      <c r="AD96" s="12">
         <v>5.1317199999999996</v>
       </c>
-      <c r="AE96" s="13">
+      <c r="AE96" s="12">
         <v>5.1174999999999997</v>
       </c>
-      <c r="AF96" s="13">
+      <c r="AF96" s="12">
         <v>5.1032799999999998</v>
       </c>
-      <c r="AG96" s="13">
+      <c r="AG96" s="12">
         <v>5.0890500000000003</v>
       </c>
-      <c r="AH96" s="13">
+      <c r="AH96" s="12">
         <v>5.0748300000000004</v>
       </c>
-      <c r="AI96" s="13">
+      <c r="AI96" s="12">
         <v>5.0606099999999996</v>
       </c>
-      <c r="AJ96" s="13">
+      <c r="AJ96" s="12">
         <v>5.0463899999999997</v>
       </c>
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>68</v>
-      </c>
-      <c r="B97" s="13">
+        <v>67</v>
+      </c>
+      <c r="B97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="G97" s="13">
+      <c r="G97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="H97" s="13">
+      <c r="H97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="I97" s="13">
+      <c r="I97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="J97" s="13">
+      <c r="J97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="K97" s="13">
+      <c r="K97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="L97" s="13">
+      <c r="L97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="M97" s="13">
+      <c r="M97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="N97" s="13">
+      <c r="N97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="O97" s="13">
+      <c r="O97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="P97" s="13">
+      <c r="P97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="Q97" s="13">
+      <c r="Q97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="R97" s="13">
+      <c r="R97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="S97" s="13">
+      <c r="S97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="T97" s="13">
+      <c r="T97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="U97" s="13">
+      <c r="U97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="V97" s="13">
+      <c r="V97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="W97" s="13">
+      <c r="W97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="X97" s="13">
+      <c r="X97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="Y97" s="13">
+      <c r="Y97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="Z97" s="13">
+      <c r="Z97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="AA97" s="13">
+      <c r="AA97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="AB97" s="13">
+      <c r="AB97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="AC97" s="13">
+      <c r="AC97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="AD97" s="13">
+      <c r="AD97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="AE97" s="13">
+      <c r="AE97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="AF97" s="13">
+      <c r="AF97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="AG97" s="13">
+      <c r="AG97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="AH97" s="13">
+      <c r="AH97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="AI97" s="13">
+      <c r="AI97" s="12">
         <v>0.72799999999999998</v>
       </c>
-      <c r="AJ97" s="13">
+      <c r="AJ97" s="12">
         <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>69</v>
-      </c>
-      <c r="B98" s="13">
-        <v>0</v>
-      </c>
-      <c r="C98" s="13">
-        <v>0</v>
-      </c>
-      <c r="D98" s="13">
-        <v>0</v>
-      </c>
-      <c r="E98" s="13">
-        <v>0</v>
-      </c>
-      <c r="F98" s="13">
-        <v>0</v>
-      </c>
-      <c r="G98" s="13">
-        <v>0</v>
-      </c>
-      <c r="H98" s="13">
-        <v>0</v>
-      </c>
-      <c r="I98" s="13">
-        <v>0</v>
-      </c>
-      <c r="J98" s="13">
-        <v>0</v>
-      </c>
-      <c r="K98" s="13">
-        <v>0</v>
-      </c>
-      <c r="L98" s="13">
-        <v>0</v>
-      </c>
-      <c r="M98" s="13">
-        <v>0</v>
-      </c>
-      <c r="N98" s="13">
-        <v>0</v>
-      </c>
-      <c r="O98" s="13">
-        <v>0</v>
-      </c>
-      <c r="P98" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="13">
-        <v>0</v>
-      </c>
-      <c r="R98" s="13">
-        <v>0</v>
-      </c>
-      <c r="S98" s="13">
-        <v>0</v>
-      </c>
-      <c r="T98" s="13">
-        <v>0</v>
-      </c>
-      <c r="U98" s="13">
-        <v>0</v>
-      </c>
-      <c r="V98" s="13">
-        <v>0</v>
-      </c>
-      <c r="W98" s="13">
-        <v>0</v>
-      </c>
-      <c r="X98" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y98" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ98" s="13">
+        <v>68</v>
+      </c>
+      <c r="B98" s="12">
+        <v>0</v>
+      </c>
+      <c r="C98" s="12">
+        <v>0</v>
+      </c>
+      <c r="D98" s="12">
+        <v>0</v>
+      </c>
+      <c r="E98" s="12">
+        <v>0</v>
+      </c>
+      <c r="F98" s="12">
+        <v>0</v>
+      </c>
+      <c r="G98" s="12">
+        <v>0</v>
+      </c>
+      <c r="H98" s="12">
+        <v>0</v>
+      </c>
+      <c r="I98" s="12">
+        <v>0</v>
+      </c>
+      <c r="J98" s="12">
+        <v>0</v>
+      </c>
+      <c r="K98" s="12">
+        <v>0</v>
+      </c>
+      <c r="L98" s="12">
+        <v>0</v>
+      </c>
+      <c r="M98" s="12">
+        <v>0</v>
+      </c>
+      <c r="N98" s="12">
+        <v>0</v>
+      </c>
+      <c r="O98" s="12">
+        <v>0</v>
+      </c>
+      <c r="P98" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="12">
+        <v>0</v>
+      </c>
+      <c r="R98" s="12">
+        <v>0</v>
+      </c>
+      <c r="S98" s="12">
+        <v>0</v>
+      </c>
+      <c r="T98" s="12">
+        <v>0</v>
+      </c>
+      <c r="U98" s="12">
+        <v>0</v>
+      </c>
+      <c r="V98" s="12">
+        <v>0</v>
+      </c>
+      <c r="W98" s="12">
+        <v>0</v>
+      </c>
+      <c r="X98" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ98" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>70</v>
-      </c>
-      <c r="B99" s="13">
-        <v>0</v>
-      </c>
-      <c r="C99" s="13">
-        <v>0</v>
-      </c>
-      <c r="D99" s="13">
-        <v>0</v>
-      </c>
-      <c r="E99" s="13">
-        <v>0</v>
-      </c>
-      <c r="F99" s="13">
-        <v>0</v>
-      </c>
-      <c r="G99" s="13">
-        <v>0</v>
-      </c>
-      <c r="H99" s="13">
-        <v>0</v>
-      </c>
-      <c r="I99" s="13">
-        <v>0</v>
-      </c>
-      <c r="J99" s="13">
-        <v>0</v>
-      </c>
-      <c r="K99" s="13">
-        <v>0</v>
-      </c>
-      <c r="L99" s="13">
-        <v>0</v>
-      </c>
-      <c r="M99" s="13">
-        <v>0</v>
-      </c>
-      <c r="N99" s="13">
-        <v>0</v>
-      </c>
-      <c r="O99" s="13">
-        <v>0</v>
-      </c>
-      <c r="P99" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="13">
-        <v>0</v>
-      </c>
-      <c r="R99" s="13">
-        <v>0</v>
-      </c>
-      <c r="S99" s="13">
-        <v>0</v>
-      </c>
-      <c r="T99" s="13">
-        <v>0</v>
-      </c>
-      <c r="U99" s="13">
-        <v>0</v>
-      </c>
-      <c r="V99" s="13">
-        <v>0</v>
-      </c>
-      <c r="W99" s="13">
-        <v>0</v>
-      </c>
-      <c r="X99" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y99" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z99" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA99" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB99" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC99" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD99" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE99" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF99" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG99" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH99" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI99" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ99" s="13">
+        <v>69</v>
+      </c>
+      <c r="B99" s="12">
+        <v>0</v>
+      </c>
+      <c r="C99" s="12">
+        <v>0</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0</v>
+      </c>
+      <c r="F99" s="12">
+        <v>0</v>
+      </c>
+      <c r="G99" s="12">
+        <v>0</v>
+      </c>
+      <c r="H99" s="12">
+        <v>0</v>
+      </c>
+      <c r="I99" s="12">
+        <v>0</v>
+      </c>
+      <c r="J99" s="12">
+        <v>0</v>
+      </c>
+      <c r="K99" s="12">
+        <v>0</v>
+      </c>
+      <c r="L99" s="12">
+        <v>0</v>
+      </c>
+      <c r="M99" s="12">
+        <v>0</v>
+      </c>
+      <c r="N99" s="12">
+        <v>0</v>
+      </c>
+      <c r="O99" s="12">
+        <v>0</v>
+      </c>
+      <c r="P99" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="12">
+        <v>0</v>
+      </c>
+      <c r="R99" s="12">
+        <v>0</v>
+      </c>
+      <c r="S99" s="12">
+        <v>0</v>
+      </c>
+      <c r="T99" s="12">
+        <v>0</v>
+      </c>
+      <c r="U99" s="12">
+        <v>0</v>
+      </c>
+      <c r="V99" s="12">
+        <v>0</v>
+      </c>
+      <c r="W99" s="12">
+        <v>0</v>
+      </c>
+      <c r="X99" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ99" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>71</v>
-      </c>
-      <c r="B100" s="13">
-        <v>0</v>
-      </c>
-      <c r="C100" s="13">
-        <v>0</v>
-      </c>
-      <c r="D100" s="13">
-        <v>0</v>
-      </c>
-      <c r="E100" s="13">
-        <v>0</v>
-      </c>
-      <c r="F100" s="13">
-        <v>0</v>
-      </c>
-      <c r="G100" s="13">
-        <v>0</v>
-      </c>
-      <c r="H100" s="13">
-        <v>0</v>
-      </c>
-      <c r="I100" s="13">
-        <v>0</v>
-      </c>
-      <c r="J100" s="13">
-        <v>0</v>
-      </c>
-      <c r="K100" s="13">
-        <v>0</v>
-      </c>
-      <c r="L100" s="13">
-        <v>0</v>
-      </c>
-      <c r="M100" s="13">
-        <v>0</v>
-      </c>
-      <c r="N100" s="13">
-        <v>0</v>
-      </c>
-      <c r="O100" s="13">
-        <v>0</v>
-      </c>
-      <c r="P100" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="13">
-        <v>0</v>
-      </c>
-      <c r="R100" s="13">
-        <v>0</v>
-      </c>
-      <c r="S100" s="13">
-        <v>0</v>
-      </c>
-      <c r="T100" s="13">
-        <v>0</v>
-      </c>
-      <c r="U100" s="13">
-        <v>0</v>
-      </c>
-      <c r="V100" s="13">
-        <v>0</v>
-      </c>
-      <c r="W100" s="13">
-        <v>0</v>
-      </c>
-      <c r="X100" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC100" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD100" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE100" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF100" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG100" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH100" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI100" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ100" s="13">
+        <v>70</v>
+      </c>
+      <c r="B100" s="12">
+        <v>0</v>
+      </c>
+      <c r="C100" s="12">
+        <v>0</v>
+      </c>
+      <c r="D100" s="12">
+        <v>0</v>
+      </c>
+      <c r="E100" s="12">
+        <v>0</v>
+      </c>
+      <c r="F100" s="12">
+        <v>0</v>
+      </c>
+      <c r="G100" s="12">
+        <v>0</v>
+      </c>
+      <c r="H100" s="12">
+        <v>0</v>
+      </c>
+      <c r="I100" s="12">
+        <v>0</v>
+      </c>
+      <c r="J100" s="12">
+        <v>0</v>
+      </c>
+      <c r="K100" s="12">
+        <v>0</v>
+      </c>
+      <c r="L100" s="12">
+        <v>0</v>
+      </c>
+      <c r="M100" s="12">
+        <v>0</v>
+      </c>
+      <c r="N100" s="12">
+        <v>0</v>
+      </c>
+      <c r="O100" s="12">
+        <v>0</v>
+      </c>
+      <c r="P100" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="12">
+        <v>0</v>
+      </c>
+      <c r="R100" s="12">
+        <v>0</v>
+      </c>
+      <c r="S100" s="12">
+        <v>0</v>
+      </c>
+      <c r="T100" s="12">
+        <v>0</v>
+      </c>
+      <c r="U100" s="12">
+        <v>0</v>
+      </c>
+      <c r="V100" s="12">
+        <v>0</v>
+      </c>
+      <c r="W100" s="12">
+        <v>0</v>
+      </c>
+      <c r="X100" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ100" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>72</v>
-      </c>
-      <c r="B101" s="13">
-        <v>0</v>
-      </c>
-      <c r="C101" s="13">
-        <v>0</v>
-      </c>
-      <c r="D101" s="13">
-        <v>0</v>
-      </c>
-      <c r="E101" s="13">
-        <v>0</v>
-      </c>
-      <c r="F101" s="13">
-        <v>0</v>
-      </c>
-      <c r="G101" s="13">
-        <v>0</v>
-      </c>
-      <c r="H101" s="13">
-        <v>0</v>
-      </c>
-      <c r="I101" s="13">
-        <v>0</v>
-      </c>
-      <c r="J101" s="13">
-        <v>0</v>
-      </c>
-      <c r="K101" s="13">
-        <v>0</v>
-      </c>
-      <c r="L101" s="13">
-        <v>0</v>
-      </c>
-      <c r="M101" s="13">
-        <v>0</v>
-      </c>
-      <c r="N101" s="13">
-        <v>0</v>
-      </c>
-      <c r="O101" s="13">
-        <v>0</v>
-      </c>
-      <c r="P101" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="13">
-        <v>0</v>
-      </c>
-      <c r="R101" s="13">
-        <v>0</v>
-      </c>
-      <c r="S101" s="13">
-        <v>0</v>
-      </c>
-      <c r="T101" s="13">
-        <v>0</v>
-      </c>
-      <c r="U101" s="13">
-        <v>0</v>
-      </c>
-      <c r="V101" s="13">
-        <v>0</v>
-      </c>
-      <c r="W101" s="13">
-        <v>0</v>
-      </c>
-      <c r="X101" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ101" s="13">
+        <v>71</v>
+      </c>
+      <c r="B101" s="12">
+        <v>0</v>
+      </c>
+      <c r="C101" s="12">
+        <v>0</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0</v>
+      </c>
+      <c r="E101" s="12">
+        <v>0</v>
+      </c>
+      <c r="F101" s="12">
+        <v>0</v>
+      </c>
+      <c r="G101" s="12">
+        <v>0</v>
+      </c>
+      <c r="H101" s="12">
+        <v>0</v>
+      </c>
+      <c r="I101" s="12">
+        <v>0</v>
+      </c>
+      <c r="J101" s="12">
+        <v>0</v>
+      </c>
+      <c r="K101" s="12">
+        <v>0</v>
+      </c>
+      <c r="L101" s="12">
+        <v>0</v>
+      </c>
+      <c r="M101" s="12">
+        <v>0</v>
+      </c>
+      <c r="N101" s="12">
+        <v>0</v>
+      </c>
+      <c r="O101" s="12">
+        <v>0</v>
+      </c>
+      <c r="P101" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="12">
+        <v>0</v>
+      </c>
+      <c r="R101" s="12">
+        <v>0</v>
+      </c>
+      <c r="S101" s="12">
+        <v>0</v>
+      </c>
+      <c r="T101" s="12">
+        <v>0</v>
+      </c>
+      <c r="U101" s="12">
+        <v>0</v>
+      </c>
+      <c r="V101" s="12">
+        <v>0</v>
+      </c>
+      <c r="W101" s="12">
+        <v>0</v>
+      </c>
+      <c r="X101" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>73</v>
-      </c>
-      <c r="B102" s="13">
+        <v>72</v>
+      </c>
+      <c r="B102" s="12">
         <v>4</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C102" s="12">
         <v>4</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D102" s="12">
         <v>4</v>
       </c>
-      <c r="E102" s="13">
+      <c r="E102" s="12">
         <v>4</v>
       </c>
-      <c r="F102" s="13">
+      <c r="F102" s="12">
         <v>4</v>
       </c>
-      <c r="G102" s="13">
+      <c r="G102" s="12">
         <v>4</v>
       </c>
-      <c r="H102" s="13">
+      <c r="H102" s="12">
         <v>4</v>
       </c>
-      <c r="I102" s="13">
+      <c r="I102" s="12">
         <v>4</v>
       </c>
-      <c r="J102" s="13">
+      <c r="J102" s="12">
         <v>4</v>
       </c>
-      <c r="K102" s="13">
+      <c r="K102" s="12">
         <v>4</v>
       </c>
-      <c r="L102" s="13">
+      <c r="L102" s="12">
         <v>4</v>
       </c>
-      <c r="M102" s="13">
+      <c r="M102" s="12">
         <v>4</v>
       </c>
-      <c r="N102" s="13">
+      <c r="N102" s="12">
         <v>4</v>
       </c>
-      <c r="O102" s="13">
+      <c r="O102" s="12">
         <v>4</v>
       </c>
-      <c r="P102" s="13">
+      <c r="P102" s="12">
         <v>4</v>
       </c>
-      <c r="Q102" s="13">
+      <c r="Q102" s="12">
         <v>4</v>
       </c>
-      <c r="R102" s="13">
+      <c r="R102" s="12">
         <v>4</v>
       </c>
-      <c r="S102" s="13">
+      <c r="S102" s="12">
         <v>4</v>
       </c>
-      <c r="T102" s="13">
+      <c r="T102" s="12">
         <v>4</v>
       </c>
-      <c r="U102" s="13">
+      <c r="U102" s="12">
         <v>4</v>
       </c>
-      <c r="V102" s="13">
+      <c r="V102" s="12">
         <v>4</v>
       </c>
-      <c r="W102" s="13">
+      <c r="W102" s="12">
         <v>4</v>
       </c>
-      <c r="X102" s="13">
+      <c r="X102" s="12">
         <v>4</v>
       </c>
-      <c r="Y102" s="13">
+      <c r="Y102" s="12">
         <v>4</v>
       </c>
-      <c r="Z102" s="13">
+      <c r="Z102" s="12">
         <v>4</v>
       </c>
-      <c r="AA102" s="13">
+      <c r="AA102" s="12">
         <v>4.0005199999999999</v>
       </c>
-      <c r="AB102" s="13">
+      <c r="AB102" s="12">
         <v>4.0005199999999999</v>
       </c>
-      <c r="AC102" s="13">
+      <c r="AC102" s="12">
         <v>4.0005199999999999</v>
       </c>
-      <c r="AD102" s="13">
+      <c r="AD102" s="12">
         <v>4.0005199999999999</v>
       </c>
-      <c r="AE102" s="13">
+      <c r="AE102" s="12">
         <v>4.0005199999999999</v>
       </c>
-      <c r="AF102" s="13">
+      <c r="AF102" s="12">
         <v>4.0005199999999999</v>
       </c>
-      <c r="AG102" s="13">
+      <c r="AG102" s="12">
         <v>4.0005199999999999</v>
       </c>
-      <c r="AH102" s="13">
+      <c r="AH102" s="12">
         <v>4.0005199999999999</v>
       </c>
-      <c r="AI102" s="13">
+      <c r="AI102" s="12">
         <v>4.0005199999999999</v>
       </c>
-      <c r="AJ102" s="13">
+      <c r="AJ102" s="12">
         <v>4.0005199999999999</v>
       </c>
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>74</v>
-      </c>
-      <c r="B103" s="13">
-        <v>0</v>
-      </c>
-      <c r="C103" s="13">
-        <v>0</v>
-      </c>
-      <c r="D103" s="13">
-        <v>0</v>
-      </c>
-      <c r="E103" s="13">
-        <v>0</v>
-      </c>
-      <c r="F103" s="13">
-        <v>0</v>
-      </c>
-      <c r="G103" s="13">
-        <v>0</v>
-      </c>
-      <c r="H103" s="13">
-        <v>0</v>
-      </c>
-      <c r="I103" s="13">
-        <v>0</v>
-      </c>
-      <c r="J103" s="13">
-        <v>0</v>
-      </c>
-      <c r="K103" s="13">
-        <v>0</v>
-      </c>
-      <c r="L103" s="13">
-        <v>0</v>
-      </c>
-      <c r="M103" s="13">
-        <v>0</v>
-      </c>
-      <c r="N103" s="13">
-        <v>0</v>
-      </c>
-      <c r="O103" s="13">
-        <v>0</v>
-      </c>
-      <c r="P103" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="13">
-        <v>0</v>
-      </c>
-      <c r="R103" s="13">
-        <v>0</v>
-      </c>
-      <c r="S103" s="13">
-        <v>0</v>
-      </c>
-      <c r="T103" s="13">
-        <v>0</v>
-      </c>
-      <c r="U103" s="13">
-        <v>0</v>
-      </c>
-      <c r="V103" s="13">
-        <v>0</v>
-      </c>
-      <c r="W103" s="13">
-        <v>0</v>
-      </c>
-      <c r="X103" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y103" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z103" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA103" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB103" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC103" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD103" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE103" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF103" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG103" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH103" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI103" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ103" s="13">
+        <v>73</v>
+      </c>
+      <c r="B103" s="12">
+        <v>0</v>
+      </c>
+      <c r="C103" s="12">
+        <v>0</v>
+      </c>
+      <c r="D103" s="12">
+        <v>0</v>
+      </c>
+      <c r="E103" s="12">
+        <v>0</v>
+      </c>
+      <c r="F103" s="12">
+        <v>0</v>
+      </c>
+      <c r="G103" s="12">
+        <v>0</v>
+      </c>
+      <c r="H103" s="12">
+        <v>0</v>
+      </c>
+      <c r="I103" s="12">
+        <v>0</v>
+      </c>
+      <c r="J103" s="12">
+        <v>0</v>
+      </c>
+      <c r="K103" s="12">
+        <v>0</v>
+      </c>
+      <c r="L103" s="12">
+        <v>0</v>
+      </c>
+      <c r="M103" s="12">
+        <v>0</v>
+      </c>
+      <c r="N103" s="12">
+        <v>0</v>
+      </c>
+      <c r="O103" s="12">
+        <v>0</v>
+      </c>
+      <c r="P103" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="12">
+        <v>0</v>
+      </c>
+      <c r="R103" s="12">
+        <v>0</v>
+      </c>
+      <c r="S103" s="12">
+        <v>0</v>
+      </c>
+      <c r="T103" s="12">
+        <v>0</v>
+      </c>
+      <c r="U103" s="12">
+        <v>0</v>
+      </c>
+      <c r="V103" s="12">
+        <v>0</v>
+      </c>
+      <c r="W103" s="12">
+        <v>0</v>
+      </c>
+      <c r="X103" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>75</v>
-      </c>
-      <c r="B104" s="13">
+        <v>74</v>
+      </c>
+      <c r="B104" s="12">
         <v>11.24</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="12">
         <v>12.73</v>
       </c>
-      <c r="D104" s="13">
+      <c r="D104" s="12">
         <v>14.46</v>
       </c>
-      <c r="E104" s="13">
+      <c r="E104" s="12">
         <v>16.760000000000002</v>
       </c>
-      <c r="F104" s="13">
+      <c r="F104" s="12">
         <v>17.88</v>
       </c>
-      <c r="G104" s="13">
+      <c r="G104" s="12">
         <v>18.72</v>
       </c>
-      <c r="H104" s="13">
+      <c r="H104" s="12">
         <v>19.37</v>
       </c>
-      <c r="I104" s="13">
+      <c r="I104" s="12">
         <v>19.78</v>
       </c>
-      <c r="J104" s="13">
+      <c r="J104" s="12">
         <v>20.14</v>
       </c>
-      <c r="K104" s="13">
+      <c r="K104" s="12">
         <v>20.59</v>
       </c>
-      <c r="L104" s="13">
+      <c r="L104" s="12">
         <v>21.14</v>
       </c>
-      <c r="M104" s="13">
+      <c r="M104" s="12">
         <v>21.58</v>
       </c>
-      <c r="N104" s="13">
+      <c r="N104" s="12">
         <v>21.93</v>
       </c>
-      <c r="O104" s="13">
+      <c r="O104" s="12">
         <v>22.44</v>
       </c>
-      <c r="P104" s="13">
+      <c r="P104" s="12">
         <v>22.79</v>
       </c>
-      <c r="Q104" s="13">
+      <c r="Q104" s="12">
         <v>23.29</v>
       </c>
-      <c r="R104" s="13">
+      <c r="R104" s="12">
         <v>23.9</v>
       </c>
-      <c r="S104" s="13">
+      <c r="S104" s="12">
         <v>24.5</v>
       </c>
-      <c r="T104" s="13">
+      <c r="T104" s="12">
         <v>25.18</v>
       </c>
-      <c r="U104" s="13">
+      <c r="U104" s="12">
         <v>25.61</v>
       </c>
-      <c r="V104" s="13">
+      <c r="V104" s="12">
         <v>26.25</v>
       </c>
-      <c r="W104" s="13">
+      <c r="W104" s="12">
         <v>26.62</v>
       </c>
-      <c r="X104" s="13">
+      <c r="X104" s="12">
         <v>27.21</v>
       </c>
-      <c r="Y104" s="13">
+      <c r="Y104" s="12">
         <v>27.8</v>
       </c>
-      <c r="Z104" s="13">
+      <c r="Z104" s="12">
         <v>28.5</v>
       </c>
-      <c r="AA104" s="13">
+      <c r="AA104" s="12">
         <v>28.976400000000002</v>
       </c>
-      <c r="AB104" s="13">
+      <c r="AB104" s="12">
         <v>29.5379</v>
       </c>
-      <c r="AC104" s="13">
+      <c r="AC104" s="12">
         <v>30.099399999999999</v>
       </c>
-      <c r="AD104" s="13">
+      <c r="AD104" s="12">
         <v>30.660900000000002</v>
       </c>
-      <c r="AE104" s="13">
+      <c r="AE104" s="12">
         <v>31.222300000000001</v>
       </c>
-      <c r="AF104" s="13">
+      <c r="AF104" s="12">
         <v>31.783799999999999</v>
       </c>
-      <c r="AG104" s="13">
+      <c r="AG104" s="12">
         <v>32.345300000000002</v>
       </c>
-      <c r="AH104" s="13">
+      <c r="AH104" s="12">
         <v>32.906799999999997</v>
       </c>
-      <c r="AI104" s="13">
+      <c r="AI104" s="12">
         <v>33.468299999999999</v>
       </c>
-      <c r="AJ104" s="13">
+      <c r="AJ104" s="12">
         <v>34.029800000000002</v>
       </c>
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>76</v>
-      </c>
-      <c r="B105" s="13">
+        <v>75</v>
+      </c>
+      <c r="B105" s="12">
         <v>3.3650000000000002</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="12">
         <v>3.7730000000000001</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D105" s="12">
         <v>4.0010000000000003</v>
       </c>
-      <c r="E105" s="13">
+      <c r="E105" s="12">
         <v>4.2549999999999999</v>
       </c>
-      <c r="F105" s="13">
+      <c r="F105" s="12">
         <v>4.5510000000000002</v>
       </c>
-      <c r="G105" s="13">
+      <c r="G105" s="12">
         <v>4.5410000000000004</v>
       </c>
-      <c r="H105" s="13">
+      <c r="H105" s="12">
         <v>4.593</v>
       </c>
-      <c r="I105" s="13">
+      <c r="I105" s="12">
         <v>4.8499999999999996</v>
       </c>
-      <c r="J105" s="13">
+      <c r="J105" s="12">
         <v>5.0709999999999997</v>
       </c>
-      <c r="K105" s="13">
+      <c r="K105" s="12">
         <v>5.2350000000000003</v>
       </c>
-      <c r="L105" s="13">
+      <c r="L105" s="12">
         <v>5.2190000000000003</v>
       </c>
-      <c r="M105" s="13">
+      <c r="M105" s="12">
         <v>5.2350000000000003</v>
       </c>
-      <c r="N105" s="13">
+      <c r="N105" s="12">
         <v>5.2910000000000004</v>
       </c>
-      <c r="O105" s="13">
+      <c r="O105" s="12">
         <v>5.3710000000000004</v>
       </c>
-      <c r="P105" s="13">
+      <c r="P105" s="12">
         <v>5.407</v>
       </c>
-      <c r="Q105" s="13">
+      <c r="Q105" s="12">
         <v>5.3449999999999998</v>
       </c>
-      <c r="R105" s="13">
+      <c r="R105" s="12">
         <v>5.3120000000000003</v>
       </c>
-      <c r="S105" s="13">
+      <c r="S105" s="12">
         <v>5.2880000000000003</v>
       </c>
-      <c r="T105" s="13">
+      <c r="T105" s="12">
         <v>5.2539999999999996</v>
       </c>
-      <c r="U105" s="13">
+      <c r="U105" s="12">
         <v>5.2210000000000001</v>
       </c>
-      <c r="V105" s="13">
+      <c r="V105" s="12">
         <v>5.2510000000000003</v>
       </c>
-      <c r="W105" s="13">
+      <c r="W105" s="12">
         <v>5.2190000000000003</v>
       </c>
-      <c r="X105" s="13">
+      <c r="X105" s="12">
         <v>5.202</v>
       </c>
-      <c r="Y105" s="13">
+      <c r="Y105" s="12">
         <v>5.2320000000000002</v>
       </c>
-      <c r="Z105" s="13">
+      <c r="Z105" s="12">
         <v>5.202</v>
       </c>
-      <c r="AA105" s="13">
+      <c r="AA105" s="12">
         <v>5.1743800000000002</v>
       </c>
-      <c r="AB105" s="13">
+      <c r="AB105" s="12">
         <v>5.1601600000000003</v>
       </c>
-      <c r="AC105" s="13">
+      <c r="AC105" s="12">
         <v>5.1459400000000004</v>
       </c>
-      <c r="AD105" s="13">
+      <c r="AD105" s="12">
         <v>5.1317199999999996</v>
       </c>
-      <c r="AE105" s="13">
+      <c r="AE105" s="12">
         <v>5.1174999999999997</v>
       </c>
-      <c r="AF105" s="13">
+      <c r="AF105" s="12">
         <v>5.1032799999999998</v>
       </c>
-      <c r="AG105" s="13">
+      <c r="AG105" s="12">
         <v>5.0890500000000003</v>
       </c>
-      <c r="AH105" s="13">
+      <c r="AH105" s="12">
         <v>5.0748300000000004</v>
       </c>
-      <c r="AI105" s="13">
+      <c r="AI105" s="12">
         <v>5.0606099999999996</v>
       </c>
-      <c r="AJ105" s="13">
+      <c r="AJ105" s="12">
         <v>5.0463899999999997</v>
       </c>
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B108">
         <v>2016</v>
@@ -15070,20 +15334,20 @@
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B111">
         <v>10428000</v>
@@ -15193,7 +15457,7 @@
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B112">
         <v>7658000</v>
@@ -15303,7 +15567,7 @@
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B113">
         <v>10459000</v>
@@ -15413,7 +15677,7 @@
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -15523,7 +15787,7 @@
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -15633,7 +15897,7 @@
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -15743,7 +16007,7 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -15853,7 +16117,7 @@
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B118">
         <v>14500000</v>
@@ -15963,7 +16227,7 @@
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -16073,7 +16337,7 @@
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120">
         <v>10814000</v>
@@ -16183,7 +16447,7 @@
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B121">
         <v>10387000</v>
@@ -16293,25 +16557,25 @@
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B126">
         <v>0.61</v>
@@ -16421,7 +16685,7 @@
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B127">
         <v>0.48299999999999998</v>
@@ -16531,7 +16795,7 @@
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B128">
         <v>0.91700000000000004</v>
@@ -16641,7 +16905,7 @@
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B129">
         <v>0.373</v>
@@ -16751,7 +17015,7 @@
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B130">
         <v>0.34</v>
@@ -16861,7 +17125,7 @@
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B131">
         <v>0.25900000000000001</v>
@@ -16971,7 +17235,7 @@
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B132">
         <v>0.19800000000000001</v>
@@ -17081,7 +17345,7 @@
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B133">
         <v>0.58899999999999997</v>
@@ -17191,7 +17455,7 @@
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B134">
         <v>0.74</v>
@@ -17301,7 +17565,7 @@
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B135">
         <v>0.05</v>
@@ -17411,7 +17675,7 @@
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B136">
         <v>0.08</v>
@@ -17521,208 +17785,208 @@
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>66</v>
-      </c>
-      <c r="B139" s="11">
+        <v>65</v>
+      </c>
+      <c r="B139" s="10">
         <f>E67*1000/(8760*B126)+D67+B95*B111/10^6</f>
         <v>31.554060196017666</v>
       </c>
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>67</v>
-      </c>
-      <c r="B140" s="11">
+        <v>66</v>
+      </c>
+      <c r="B140" s="10">
         <f>E70*1000/(8760*B127)+D70+B96*B112/10^6</f>
         <v>32.479486987624909</v>
       </c>
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>68</v>
-      </c>
-      <c r="B141" s="11">
+        <v>67</v>
+      </c>
+      <c r="B141" s="10">
         <f>E76*1000/(8760*B128)+D76+B97*B113/10^6</f>
         <v>21.360143345612805</v>
       </c>
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>69</v>
-      </c>
-      <c r="B142" s="11">
+        <v>68</v>
+      </c>
+      <c r="B142" s="10">
         <f>E82*1000/(8760*B129)+D82+B98*B114/10^6</f>
         <v>10.39660068309523</v>
       </c>
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>70</v>
-      </c>
-      <c r="B143" s="11">
+        <v>69</v>
+      </c>
+      <c r="B143" s="10">
         <f>E83*1000/(8760*B130)+D83+B99*B115/10^6</f>
         <v>13.272226698898738</v>
       </c>
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>71</v>
-      </c>
-      <c r="B144" s="11">
+        <v>70</v>
+      </c>
+      <c r="B144" s="10">
         <f>E86*1000/(8760*B131)+D86+B100*B116/10^6</f>
         <v>10.877805398353344</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>72</v>
-      </c>
-      <c r="B145" s="11">
+        <v>71</v>
+      </c>
+      <c r="B145" s="10">
         <f>E85*1000/(8760*B132)+D85+B101*B117/10^6</f>
         <v>38.760896637608965</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>73</v>
-      </c>
-      <c r="B146" s="11">
+        <v>72</v>
+      </c>
+      <c r="B146" s="10">
         <f>E79*1000/(8760*B133)+D79+B102*B118/10^6</f>
         <v>83.722667938073201</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>74</v>
-      </c>
-      <c r="B147" s="11">
+        <v>73</v>
+      </c>
+      <c r="B147" s="10">
         <f>E80*1000/(8760*B134)+D80+B103*B119/10^6</f>
         <v>17.408675799086758</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>75</v>
-      </c>
-      <c r="B148" s="11">
+        <v>74</v>
+      </c>
+      <c r="B148" s="10">
         <f>E73*1000/(8760*B135)+D73+B104*B120/10^6</f>
         <v>153.74735086757991</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>76</v>
-      </c>
-      <c r="B149" s="11">
+        <v>75</v>
+      </c>
+      <c r="B149" s="10">
         <f>E73*1000/(8760*B136)+D73+B105*B121/10^6</f>
         <v>60.86599929223744</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>66</v>
-      </c>
-      <c r="B152" s="14">
+        <v>65</v>
+      </c>
+      <c r="B152" s="13">
         <f>B139/$B$139</f>
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>67</v>
-      </c>
-      <c r="B153" s="14">
+        <v>66</v>
+      </c>
+      <c r="B153" s="13">
         <f t="shared" ref="B153:B162" si="11">B140/$B$139</f>
         <v>1.0293282951816147</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>68</v>
-      </c>
-      <c r="B154" s="14">
+        <v>67</v>
+      </c>
+      <c r="B154" s="13">
         <f t="shared" si="11"/>
         <v>0.67693802993722496</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>69</v>
-      </c>
-      <c r="B155" s="14">
+        <v>68</v>
+      </c>
+      <c r="B155" s="13">
         <f t="shared" si="11"/>
         <v>0.329485353660045</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>70</v>
-      </c>
-      <c r="B156" s="14">
+        <v>69</v>
+      </c>
+      <c r="B156" s="13">
         <f t="shared" si="11"/>
         <v>0.42061866575806883</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>71</v>
-      </c>
-      <c r="B157" s="14">
+        <v>70</v>
+      </c>
+      <c r="B157" s="13">
         <f t="shared" si="11"/>
         <v>0.34473552153919629</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>72</v>
-      </c>
-      <c r="B158" s="14">
+        <v>71</v>
+      </c>
+      <c r="B158" s="13">
         <f t="shared" si="11"/>
         <v>1.2283964851693112</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>73</v>
-      </c>
-      <c r="B159" s="14">
+        <v>72</v>
+      </c>
+      <c r="B159" s="13">
         <f t="shared" si="11"/>
         <v>2.6533088742931272</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>74</v>
-      </c>
-      <c r="B160" s="14">
+        <v>73</v>
+      </c>
+      <c r="B160" s="13">
         <f t="shared" si="11"/>
         <v>0.55170953249572141</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>75</v>
-      </c>
-      <c r="B161" s="14">
+        <v>74</v>
+      </c>
+      <c r="B161" s="13">
         <f t="shared" si="11"/>
         <v>4.8725061026214265</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>76</v>
-      </c>
-      <c r="B162" s="14">
+        <v>75</v>
+      </c>
+      <c r="B162" s="13">
         <f t="shared" si="11"/>
         <v>1.9289434993192773</v>
       </c>
@@ -17739,7 +18003,9 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17753,11 +18019,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6">
-        <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B152</f>
-        <v>2910</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -17765,8 +18030,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="6">
-        <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B153</f>
-        <v>2995.3453389784991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -17774,8 +18038,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="6">
-        <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B154</f>
-        <v>1969.8896671173247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -17783,17 +18046,15 @@
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B155</f>
-        <v>958.80237915073099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="6">
-        <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B156</f>
-        <v>1224.0003173559803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -17801,8 +18062,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="6">
-        <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B157</f>
-        <v>1003.1803676790612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -17810,8 +18070,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="6">
-        <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B158</f>
-        <v>3574.6337718426958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -17819,8 +18078,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="6">
-        <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B159</f>
-        <v>7721.1288241930006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -17828,15 +18086,14 @@
         <v>30</v>
       </c>
       <c r="B10" s="6">
-        <f>AVERAGE(Calculations!$B$99:$B$101)*Weighting!B160</f>
-        <v>1605.4747395625493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -17844,53 +18101,48 @@
       <c r="A12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="6">
-        <f>B2</f>
-        <v>2910</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="6">
-        <f>B6</f>
-        <v>1224.0003173559803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" s="6">
-        <f>B11</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="6">
-        <f>B11</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="6">
-        <f>B9</f>
-        <v>7721.1288241930006</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17899,6 +18151,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18132,32 +18402,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A01BB41-D48A-42A8-B947-45547626A29A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BE8E50-4072-4F84-A9E6-9BA596F729BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4819B4BB-15D0-4572-9BB9-016374C323ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4819B4BB-15D0-4572-9BB9-016374C323ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13BE8E50-4072-4F84-A9E6-9BA596F729BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A01BB41-D48A-42A8-B947-45547626A29A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>